--- a/Supplements/SData 4.xlsx
+++ b/Supplements/SData 4.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="READ ME" sheetId="8" r:id="rId1"/>
     <sheet name="SNP read count CxL" sheetId="7" r:id="rId2"/>
-    <sheet name="MISSING SNP read count LxC" sheetId="9" r:id="rId3"/>
+    <sheet name="SNP read count LxC" sheetId="10" r:id="rId3"/>
     <sheet name="SNP read count CxT" sheetId="5" r:id="rId4"/>
     <sheet name="SNP read count TxC" sheetId="6" r:id="rId5"/>
     <sheet name="DeSeq_cor_Col x Ler" sheetId="1" r:id="rId6"/>
@@ -18,14 +18,52 @@
     <sheet name="DeSeq_cor_Tsu x Col" sheetId="4" r:id="rId9"/>
   </sheets>
   <definedNames>
+    <definedName name="SNP.Col_x_Ler" localSheetId="2">'SNP read count LxC'!#REF!</definedName>
+    <definedName name="SNP.Ler_x_Col" localSheetId="2">'SNP read count LxC'!$A$6:$Z$115</definedName>
     <definedName name="SNP.Tsu_x_Col.three_reps_per_gene.final" localSheetId="8">'DeSeq_cor_Tsu x Col'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="SNP.Ler_x_Col" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr sourceFile="/Users/jasonmiller/Source/CountSNP/Hornslien/project2/results1/SNP.Ler_x_Col.csv" tab="0" comma="1">
+      <textFields count="25">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="320">
   <si>
     <t>FOR EACH GENE, USE THE SNP WITH A MAXIMUM INDIVIDUAL READ COUNT (e.g. Col R1 Fwd BR1)</t>
   </si>
@@ -1058,7 +1096,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1068,6 +1106,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1099,7 +1143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1282,6 +1326,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1294,6 +1339,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SNP.Ler_x_Col" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1585,7 +1634,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
@@ -1877,8 +1928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z115"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2281,7 +2332,7 @@
       </c>
     </row>
     <row r="7" spans="1:26">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="72" t="s">
         <v>191</v>
       </c>
       <c r="C7">
@@ -3205,7 +3256,7 @@
       </c>
     </row>
     <row r="19" spans="1:26">
-      <c r="A19" t="s">
+      <c r="A19" s="72" t="s">
         <v>203</v>
       </c>
       <c r="C19">
@@ -3898,7 +3949,7 @@
       </c>
     </row>
     <row r="28" spans="1:26">
-      <c r="A28" t="s">
+      <c r="A28" s="72" t="s">
         <v>212</v>
       </c>
       <c r="C28">
@@ -4360,7 +4411,7 @@
       </c>
     </row>
     <row r="34" spans="1:26">
-      <c r="A34" t="s">
+      <c r="A34" s="72" t="s">
         <v>218</v>
       </c>
       <c r="C34">
@@ -4668,7 +4719,7 @@
       </c>
     </row>
     <row r="38" spans="1:26" s="43" customFormat="1">
-      <c r="A38" s="43" t="s">
+      <c r="A38" s="72" t="s">
         <v>222</v>
       </c>
       <c r="C38" s="43">
@@ -4899,7 +4950,7 @@
       </c>
     </row>
     <row r="41" spans="1:26">
-      <c r="A41" t="s">
+      <c r="A41" s="72" t="s">
         <v>225</v>
       </c>
       <c r="C41">
@@ -7055,7 +7106,7 @@
       </c>
     </row>
     <row r="69" spans="1:26">
-      <c r="A69" t="s">
+      <c r="A69" s="72" t="s">
         <v>253</v>
       </c>
       <c r="C69">
@@ -8518,7 +8569,7 @@
       </c>
     </row>
     <row r="88" spans="1:26">
-      <c r="A88" t="s">
+      <c r="A88" s="72" t="s">
         <v>272</v>
       </c>
       <c r="C88">
@@ -9673,7 +9724,7 @@
       </c>
     </row>
     <row r="103" spans="1:26">
-      <c r="A103" t="s">
+      <c r="A103" s="72" t="s">
         <v>287</v>
       </c>
       <c r="C103">
@@ -10058,7 +10109,7 @@
       </c>
     </row>
     <row r="108" spans="1:26">
-      <c r="A108" t="s">
+      <c r="A108" s="72" t="s">
         <v>292</v>
       </c>
       <c r="C108">
@@ -10597,7 +10648,7 @@
       </c>
     </row>
     <row r="115" spans="1:26">
-      <c r="A115" t="s">
+      <c r="A115" s="72" t="s">
         <v>299</v>
       </c>
       <c r="C115">
@@ -10680,14 +10731,8801 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:Z115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="19.375" customWidth="1"/>
+    <col min="2" max="2" width="10.375" customWidth="1"/>
+    <col min="3" max="26" width="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" s="6" customFormat="1">
+      <c r="B2" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="Z2" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" s="6" customFormat="1">
+      <c r="B3" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6">
+        <v>1</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1</v>
+      </c>
+      <c r="F3" s="6">
+        <v>1</v>
+      </c>
+      <c r="G3" s="6">
+        <v>1</v>
+      </c>
+      <c r="H3" s="6">
+        <v>1</v>
+      </c>
+      <c r="I3" s="6">
+        <v>2</v>
+      </c>
+      <c r="J3" s="6">
+        <v>2</v>
+      </c>
+      <c r="K3" s="6">
+        <v>2</v>
+      </c>
+      <c r="L3" s="6">
+        <v>2</v>
+      </c>
+      <c r="M3" s="6">
+        <v>2</v>
+      </c>
+      <c r="N3" s="6">
+        <v>2</v>
+      </c>
+      <c r="P3" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>1</v>
+      </c>
+      <c r="R3" s="6">
+        <v>1</v>
+      </c>
+      <c r="S3" s="6">
+        <v>1</v>
+      </c>
+      <c r="T3" s="6">
+        <v>1</v>
+      </c>
+      <c r="U3" s="6">
+        <v>2</v>
+      </c>
+      <c r="V3" s="6">
+        <v>2</v>
+      </c>
+      <c r="W3" s="6">
+        <v>2</v>
+      </c>
+      <c r="X3" s="6">
+        <v>2</v>
+      </c>
+      <c r="Y3" s="6">
+        <v>2</v>
+      </c>
+      <c r="Z3" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" s="6" customFormat="1">
+      <c r="B4" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="U4" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="V4" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="W4" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="X4" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y4" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z4" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" s="6" customFormat="1">
+      <c r="A5" s="63" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6">
+        <v>2</v>
+      </c>
+      <c r="E5" s="6">
+        <v>3</v>
+      </c>
+      <c r="F5" s="6">
+        <v>1</v>
+      </c>
+      <c r="G5" s="6">
+        <v>2</v>
+      </c>
+      <c r="H5" s="6">
+        <v>3</v>
+      </c>
+      <c r="I5" s="6">
+        <v>1</v>
+      </c>
+      <c r="J5" s="6">
+        <v>2</v>
+      </c>
+      <c r="K5" s="6">
+        <v>3</v>
+      </c>
+      <c r="L5" s="6">
+        <v>1</v>
+      </c>
+      <c r="M5" s="6">
+        <v>2</v>
+      </c>
+      <c r="N5" s="6">
+        <v>3</v>
+      </c>
+      <c r="O5" s="6">
+        <v>1</v>
+      </c>
+      <c r="P5" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>3</v>
+      </c>
+      <c r="R5" s="6">
+        <v>1</v>
+      </c>
+      <c r="S5" s="6">
+        <v>2</v>
+      </c>
+      <c r="T5" s="6">
+        <v>3</v>
+      </c>
+      <c r="U5" s="6">
+        <v>1</v>
+      </c>
+      <c r="V5" s="6">
+        <v>2</v>
+      </c>
+      <c r="W5" s="6">
+        <v>3</v>
+      </c>
+      <c r="X5" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="6">
+        <v>2</v>
+      </c>
+      <c r="Z5" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
+      <c r="A6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>50</v>
+      </c>
+      <c r="G6">
+        <v>10</v>
+      </c>
+      <c r="H6">
+        <v>16</v>
+      </c>
+      <c r="I6">
+        <v>8</v>
+      </c>
+      <c r="J6">
+        <v>8</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>4</v>
+      </c>
+      <c r="M6">
+        <v>2</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>22</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
+      <c r="V6">
+        <v>3</v>
+      </c>
+      <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="X6">
+        <v>1</v>
+      </c>
+      <c r="Y6">
+        <v>4</v>
+      </c>
+      <c r="Z6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
+      <c r="A7" s="72" t="s">
+        <v>191</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>763</v>
+      </c>
+      <c r="G7">
+        <v>669</v>
+      </c>
+      <c r="H7">
+        <v>1007</v>
+      </c>
+      <c r="I7">
+        <v>661</v>
+      </c>
+      <c r="J7">
+        <v>462</v>
+      </c>
+      <c r="K7">
+        <v>1048</v>
+      </c>
+      <c r="L7">
+        <v>7</v>
+      </c>
+      <c r="M7">
+        <v>5</v>
+      </c>
+      <c r="N7">
+        <v>15</v>
+      </c>
+      <c r="O7">
+        <v>83</v>
+      </c>
+      <c r="P7">
+        <v>24</v>
+      </c>
+      <c r="Q7">
+        <v>13</v>
+      </c>
+      <c r="R7">
+        <v>248</v>
+      </c>
+      <c r="S7">
+        <v>9</v>
+      </c>
+      <c r="T7">
+        <v>26</v>
+      </c>
+      <c r="U7">
+        <v>250</v>
+      </c>
+      <c r="V7">
+        <v>5</v>
+      </c>
+      <c r="W7">
+        <v>45</v>
+      </c>
+      <c r="X7">
+        <v>63</v>
+      </c>
+      <c r="Y7">
+        <v>15</v>
+      </c>
+      <c r="Z7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
+      <c r="A8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>28</v>
+      </c>
+      <c r="F8">
+        <v>627</v>
+      </c>
+      <c r="G8">
+        <v>403</v>
+      </c>
+      <c r="H8">
+        <v>583</v>
+      </c>
+      <c r="I8">
+        <v>701</v>
+      </c>
+      <c r="J8">
+        <v>425</v>
+      </c>
+      <c r="K8">
+        <v>627</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>68</v>
+      </c>
+      <c r="O8">
+        <v>35</v>
+      </c>
+      <c r="P8">
+        <v>46</v>
+      </c>
+      <c r="Q8">
+        <v>12</v>
+      </c>
+      <c r="R8">
+        <v>246</v>
+      </c>
+      <c r="S8">
+        <v>24</v>
+      </c>
+      <c r="T8">
+        <v>36</v>
+      </c>
+      <c r="U8">
+        <v>234</v>
+      </c>
+      <c r="V8">
+        <v>25</v>
+      </c>
+      <c r="W8">
+        <v>54</v>
+      </c>
+      <c r="X8">
+        <v>28</v>
+      </c>
+      <c r="Y8">
+        <v>53</v>
+      </c>
+      <c r="Z8">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
+      <c r="A9" t="s">
+        <v>193</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>775</v>
+      </c>
+      <c r="G9">
+        <v>475</v>
+      </c>
+      <c r="H9">
+        <v>730</v>
+      </c>
+      <c r="I9">
+        <v>608</v>
+      </c>
+      <c r="J9">
+        <v>419</v>
+      </c>
+      <c r="K9">
+        <v>648</v>
+      </c>
+      <c r="L9">
+        <v>16</v>
+      </c>
+      <c r="M9">
+        <v>4</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>22</v>
+      </c>
+      <c r="P9">
+        <v>49</v>
+      </c>
+      <c r="Q9">
+        <v>43</v>
+      </c>
+      <c r="R9">
+        <v>222</v>
+      </c>
+      <c r="S9">
+        <v>5</v>
+      </c>
+      <c r="T9">
+        <v>62</v>
+      </c>
+      <c r="U9">
+        <v>224</v>
+      </c>
+      <c r="V9">
+        <v>39</v>
+      </c>
+      <c r="W9">
+        <v>13</v>
+      </c>
+      <c r="X9">
+        <v>46</v>
+      </c>
+      <c r="Y9">
+        <v>42</v>
+      </c>
+      <c r="Z9">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
+      <c r="A10" t="s">
+        <v>194</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>505</v>
+      </c>
+      <c r="G10">
+        <v>482</v>
+      </c>
+      <c r="H10">
+        <v>687</v>
+      </c>
+      <c r="I10">
+        <v>446</v>
+      </c>
+      <c r="J10">
+        <v>445</v>
+      </c>
+      <c r="K10">
+        <v>593</v>
+      </c>
+      <c r="L10">
+        <v>4</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>31</v>
+      </c>
+      <c r="P10">
+        <v>21</v>
+      </c>
+      <c r="Q10">
+        <v>15</v>
+      </c>
+      <c r="R10">
+        <v>154</v>
+      </c>
+      <c r="S10">
+        <v>31</v>
+      </c>
+      <c r="T10">
+        <v>41</v>
+      </c>
+      <c r="U10">
+        <v>142</v>
+      </c>
+      <c r="V10">
+        <v>22</v>
+      </c>
+      <c r="W10">
+        <v>42</v>
+      </c>
+      <c r="X10">
+        <v>57</v>
+      </c>
+      <c r="Y10">
+        <v>51</v>
+      </c>
+      <c r="Z10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
+      <c r="A11" t="s">
+        <v>195</v>
+      </c>
+      <c r="C11">
+        <v>35</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>14</v>
+      </c>
+      <c r="F11">
+        <v>671</v>
+      </c>
+      <c r="G11">
+        <v>527</v>
+      </c>
+      <c r="H11">
+        <v>749</v>
+      </c>
+      <c r="I11">
+        <v>654</v>
+      </c>
+      <c r="J11">
+        <v>511</v>
+      </c>
+      <c r="K11">
+        <v>776</v>
+      </c>
+      <c r="L11">
+        <v>25</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>14</v>
+      </c>
+      <c r="O11">
+        <v>78</v>
+      </c>
+      <c r="P11">
+        <v>67</v>
+      </c>
+      <c r="Q11">
+        <v>85</v>
+      </c>
+      <c r="R11">
+        <v>206</v>
+      </c>
+      <c r="S11">
+        <v>43</v>
+      </c>
+      <c r="T11">
+        <v>34</v>
+      </c>
+      <c r="U11">
+        <v>190</v>
+      </c>
+      <c r="V11">
+        <v>48</v>
+      </c>
+      <c r="W11">
+        <v>47</v>
+      </c>
+      <c r="X11">
+        <v>65</v>
+      </c>
+      <c r="Y11">
+        <v>31</v>
+      </c>
+      <c r="Z11">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="A12" t="s">
+        <v>196</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <v>63</v>
+      </c>
+      <c r="G12">
+        <v>93</v>
+      </c>
+      <c r="H12">
+        <v>73</v>
+      </c>
+      <c r="I12">
+        <v>241</v>
+      </c>
+      <c r="J12">
+        <v>202</v>
+      </c>
+      <c r="K12">
+        <v>302</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>5</v>
+      </c>
+      <c r="O12">
+        <v>16</v>
+      </c>
+      <c r="P12">
+        <v>2</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>27</v>
+      </c>
+      <c r="S12">
+        <v>7</v>
+      </c>
+      <c r="T12">
+        <v>11</v>
+      </c>
+      <c r="U12">
+        <v>65</v>
+      </c>
+      <c r="V12">
+        <v>7</v>
+      </c>
+      <c r="W12">
+        <v>21</v>
+      </c>
+      <c r="X12">
+        <v>14</v>
+      </c>
+      <c r="Y12">
+        <v>2</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="A13" t="s">
+        <v>197</v>
+      </c>
+      <c r="C13">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>6</v>
+      </c>
+      <c r="F13">
+        <v>1798</v>
+      </c>
+      <c r="G13">
+        <v>1196</v>
+      </c>
+      <c r="H13">
+        <v>1276</v>
+      </c>
+      <c r="I13">
+        <v>1931</v>
+      </c>
+      <c r="J13">
+        <v>1311</v>
+      </c>
+      <c r="K13">
+        <v>1382</v>
+      </c>
+      <c r="L13">
+        <v>11</v>
+      </c>
+      <c r="M13">
+        <v>2</v>
+      </c>
+      <c r="N13">
+        <v>5</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>2</v>
+      </c>
+      <c r="Q13">
+        <v>5</v>
+      </c>
+      <c r="R13">
+        <v>2708</v>
+      </c>
+      <c r="S13">
+        <v>1836</v>
+      </c>
+      <c r="T13">
+        <v>1946</v>
+      </c>
+      <c r="U13">
+        <v>2974</v>
+      </c>
+      <c r="V13">
+        <v>1827</v>
+      </c>
+      <c r="W13">
+        <v>2101</v>
+      </c>
+      <c r="X13">
+        <v>1</v>
+      </c>
+      <c r="Y13">
+        <v>2</v>
+      </c>
+      <c r="Z13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="A14" t="s">
+        <v>198</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>689</v>
+      </c>
+      <c r="G14">
+        <v>670</v>
+      </c>
+      <c r="H14">
+        <v>605</v>
+      </c>
+      <c r="I14">
+        <v>987</v>
+      </c>
+      <c r="J14">
+        <v>1032</v>
+      </c>
+      <c r="K14">
+        <v>963</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>3</v>
+      </c>
+      <c r="Q14">
+        <v>19</v>
+      </c>
+      <c r="R14">
+        <v>1187</v>
+      </c>
+      <c r="S14">
+        <v>1016</v>
+      </c>
+      <c r="T14">
+        <v>1219</v>
+      </c>
+      <c r="U14">
+        <v>1649</v>
+      </c>
+      <c r="V14">
+        <v>1708</v>
+      </c>
+      <c r="W14">
+        <v>1619</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>3</v>
+      </c>
+      <c r="Z14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="A15" t="s">
+        <v>199</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>383</v>
+      </c>
+      <c r="G15">
+        <v>358</v>
+      </c>
+      <c r="H15">
+        <v>377</v>
+      </c>
+      <c r="I15">
+        <v>388</v>
+      </c>
+      <c r="J15">
+        <v>299</v>
+      </c>
+      <c r="K15">
+        <v>352</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>22</v>
+      </c>
+      <c r="R15">
+        <v>652</v>
+      </c>
+      <c r="S15">
+        <v>606</v>
+      </c>
+      <c r="T15">
+        <v>710</v>
+      </c>
+      <c r="U15">
+        <v>809</v>
+      </c>
+      <c r="V15">
+        <v>530</v>
+      </c>
+      <c r="W15">
+        <v>851</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="A16" t="s">
+        <v>200</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>396</v>
+      </c>
+      <c r="G16">
+        <v>380</v>
+      </c>
+      <c r="H16">
+        <v>376</v>
+      </c>
+      <c r="I16">
+        <v>386</v>
+      </c>
+      <c r="J16">
+        <v>287</v>
+      </c>
+      <c r="K16">
+        <v>349</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>22</v>
+      </c>
+      <c r="R16">
+        <v>651</v>
+      </c>
+      <c r="S16">
+        <v>645</v>
+      </c>
+      <c r="T16">
+        <v>683</v>
+      </c>
+      <c r="U16">
+        <v>812</v>
+      </c>
+      <c r="V16">
+        <v>539</v>
+      </c>
+      <c r="W16">
+        <v>851</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26">
+      <c r="A17" t="s">
+        <v>201</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>396</v>
+      </c>
+      <c r="G17">
+        <v>380</v>
+      </c>
+      <c r="H17">
+        <v>375</v>
+      </c>
+      <c r="I17">
+        <v>386</v>
+      </c>
+      <c r="J17">
+        <v>289</v>
+      </c>
+      <c r="K17">
+        <v>349</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>22</v>
+      </c>
+      <c r="R17">
+        <v>668</v>
+      </c>
+      <c r="S17">
+        <v>670</v>
+      </c>
+      <c r="T17">
+        <v>684</v>
+      </c>
+      <c r="U17">
+        <v>813</v>
+      </c>
+      <c r="V17">
+        <v>539</v>
+      </c>
+      <c r="W17">
+        <v>851</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26">
+      <c r="A18" t="s">
+        <v>202</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>444</v>
+      </c>
+      <c r="G18">
+        <v>414</v>
+      </c>
+      <c r="H18">
+        <v>418</v>
+      </c>
+      <c r="I18">
+        <v>366</v>
+      </c>
+      <c r="J18">
+        <v>297</v>
+      </c>
+      <c r="K18">
+        <v>350</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>22</v>
+      </c>
+      <c r="R18">
+        <v>791</v>
+      </c>
+      <c r="S18">
+        <v>857</v>
+      </c>
+      <c r="T18">
+        <v>766</v>
+      </c>
+      <c r="U18">
+        <v>808</v>
+      </c>
+      <c r="V18">
+        <v>550</v>
+      </c>
+      <c r="W18">
+        <v>829</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
+      <c r="A19" s="72" t="s">
+        <v>203</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>2255</v>
+      </c>
+      <c r="G19">
+        <v>1654</v>
+      </c>
+      <c r="H19">
+        <v>1224</v>
+      </c>
+      <c r="I19">
+        <v>2217</v>
+      </c>
+      <c r="J19">
+        <v>1599</v>
+      </c>
+      <c r="K19">
+        <v>1328</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>15</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>3895</v>
+      </c>
+      <c r="S19">
+        <v>2455</v>
+      </c>
+      <c r="T19">
+        <v>2738</v>
+      </c>
+      <c r="U19">
+        <v>3611</v>
+      </c>
+      <c r="V19">
+        <v>2964</v>
+      </c>
+      <c r="W19">
+        <v>2605</v>
+      </c>
+      <c r="X19">
+        <v>4</v>
+      </c>
+      <c r="Y19">
+        <v>14</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
+      <c r="A20" t="s">
+        <v>204</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>11</v>
+      </c>
+      <c r="F20">
+        <v>1372</v>
+      </c>
+      <c r="G20">
+        <v>644</v>
+      </c>
+      <c r="H20">
+        <v>956</v>
+      </c>
+      <c r="I20">
+        <v>1626</v>
+      </c>
+      <c r="J20">
+        <v>1051</v>
+      </c>
+      <c r="K20">
+        <v>1269</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>16</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>2106</v>
+      </c>
+      <c r="S20">
+        <v>1153</v>
+      </c>
+      <c r="T20">
+        <v>1376</v>
+      </c>
+      <c r="U20">
+        <v>3121</v>
+      </c>
+      <c r="V20">
+        <v>1486</v>
+      </c>
+      <c r="W20">
+        <v>2087</v>
+      </c>
+      <c r="X20">
+        <v>14</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26">
+      <c r="A21" t="s">
+        <v>205</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>2</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>796</v>
+      </c>
+      <c r="S21">
+        <v>625</v>
+      </c>
+      <c r="T21">
+        <v>581</v>
+      </c>
+      <c r="U21">
+        <v>417</v>
+      </c>
+      <c r="V21">
+        <v>307</v>
+      </c>
+      <c r="W21">
+        <v>297</v>
+      </c>
+      <c r="X21">
+        <v>2</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26">
+      <c r="A22" t="s">
+        <v>206</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>3</v>
+      </c>
+      <c r="I22">
+        <v>2</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>4</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>4</v>
+      </c>
+      <c r="P22">
+        <v>9</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>1136</v>
+      </c>
+      <c r="S22">
+        <v>1001</v>
+      </c>
+      <c r="T22">
+        <v>813</v>
+      </c>
+      <c r="U22">
+        <v>720</v>
+      </c>
+      <c r="V22">
+        <v>597</v>
+      </c>
+      <c r="W22">
+        <v>572</v>
+      </c>
+      <c r="X22">
+        <v>4</v>
+      </c>
+      <c r="Y22">
+        <v>9</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26">
+      <c r="A23" t="s">
+        <v>207</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>21</v>
+      </c>
+      <c r="G23">
+        <v>16</v>
+      </c>
+      <c r="H23">
+        <v>6</v>
+      </c>
+      <c r="I23">
+        <v>7</v>
+      </c>
+      <c r="J23">
+        <v>12</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>33</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>17</v>
+      </c>
+      <c r="R23">
+        <v>1489</v>
+      </c>
+      <c r="S23">
+        <v>1109</v>
+      </c>
+      <c r="T23">
+        <v>1200</v>
+      </c>
+      <c r="U23">
+        <v>547</v>
+      </c>
+      <c r="V23">
+        <v>486</v>
+      </c>
+      <c r="W23">
+        <v>484</v>
+      </c>
+      <c r="X23">
+        <v>27</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26">
+      <c r="A24" t="s">
+        <v>208</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24">
+        <v>3</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>3</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>2</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>25</v>
+      </c>
+      <c r="P24">
+        <v>13</v>
+      </c>
+      <c r="Q24">
+        <v>6</v>
+      </c>
+      <c r="R24">
+        <v>882</v>
+      </c>
+      <c r="S24">
+        <v>823</v>
+      </c>
+      <c r="T24">
+        <v>606</v>
+      </c>
+      <c r="U24">
+        <v>972</v>
+      </c>
+      <c r="V24">
+        <v>923</v>
+      </c>
+      <c r="W24">
+        <v>572</v>
+      </c>
+      <c r="X24">
+        <v>15</v>
+      </c>
+      <c r="Y24">
+        <v>5</v>
+      </c>
+      <c r="Z24">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26">
+      <c r="A25" t="s">
+        <v>209</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>20</v>
+      </c>
+      <c r="F25">
+        <v>9</v>
+      </c>
+      <c r="G25">
+        <v>5</v>
+      </c>
+      <c r="H25">
+        <v>7</v>
+      </c>
+      <c r="I25">
+        <v>11</v>
+      </c>
+      <c r="J25">
+        <v>5</v>
+      </c>
+      <c r="K25">
+        <v>5</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>20</v>
+      </c>
+      <c r="O25">
+        <v>79</v>
+      </c>
+      <c r="P25">
+        <v>42</v>
+      </c>
+      <c r="Q25">
+        <v>98</v>
+      </c>
+      <c r="R25">
+        <v>1662</v>
+      </c>
+      <c r="S25">
+        <v>1238</v>
+      </c>
+      <c r="T25">
+        <v>1313</v>
+      </c>
+      <c r="U25">
+        <v>1581</v>
+      </c>
+      <c r="V25">
+        <v>1251</v>
+      </c>
+      <c r="W25">
+        <v>1213</v>
+      </c>
+      <c r="X25">
+        <v>84</v>
+      </c>
+      <c r="Y25">
+        <v>42</v>
+      </c>
+      <c r="Z25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26">
+      <c r="A26" t="s">
+        <v>210</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>10</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>28</v>
+      </c>
+      <c r="G26">
+        <v>8</v>
+      </c>
+      <c r="H26">
+        <v>5</v>
+      </c>
+      <c r="I26">
+        <v>20</v>
+      </c>
+      <c r="J26">
+        <v>8</v>
+      </c>
+      <c r="K26">
+        <v>5</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>25</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>100</v>
+      </c>
+      <c r="P26">
+        <v>184</v>
+      </c>
+      <c r="Q26">
+        <v>210</v>
+      </c>
+      <c r="R26">
+        <v>1839</v>
+      </c>
+      <c r="S26">
+        <v>1423</v>
+      </c>
+      <c r="T26">
+        <v>1208</v>
+      </c>
+      <c r="U26">
+        <v>1734</v>
+      </c>
+      <c r="V26">
+        <v>1383</v>
+      </c>
+      <c r="W26">
+        <v>1306</v>
+      </c>
+      <c r="X26">
+        <v>77</v>
+      </c>
+      <c r="Y26">
+        <v>128</v>
+      </c>
+      <c r="Z26">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26">
+      <c r="A27" t="s">
+        <v>211</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>33</v>
+      </c>
+      <c r="G27">
+        <v>4</v>
+      </c>
+      <c r="H27">
+        <v>8</v>
+      </c>
+      <c r="I27">
+        <v>32</v>
+      </c>
+      <c r="J27">
+        <v>9</v>
+      </c>
+      <c r="K27">
+        <v>6</v>
+      </c>
+      <c r="L27">
+        <v>2</v>
+      </c>
+      <c r="M27">
+        <v>16</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>151</v>
+      </c>
+      <c r="P27">
+        <v>185</v>
+      </c>
+      <c r="Q27">
+        <v>217</v>
+      </c>
+      <c r="R27">
+        <v>2108</v>
+      </c>
+      <c r="S27">
+        <v>1764</v>
+      </c>
+      <c r="T27">
+        <v>1347</v>
+      </c>
+      <c r="U27">
+        <v>2014</v>
+      </c>
+      <c r="V27">
+        <v>1592</v>
+      </c>
+      <c r="W27">
+        <v>1465</v>
+      </c>
+      <c r="X27">
+        <v>160</v>
+      </c>
+      <c r="Y27">
+        <v>135</v>
+      </c>
+      <c r="Z27">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26">
+      <c r="A28" s="72" t="s">
+        <v>212</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>32</v>
+      </c>
+      <c r="G28">
+        <v>9</v>
+      </c>
+      <c r="H28">
+        <v>9</v>
+      </c>
+      <c r="I28">
+        <v>35</v>
+      </c>
+      <c r="J28">
+        <v>11</v>
+      </c>
+      <c r="K28">
+        <v>11</v>
+      </c>
+      <c r="L28">
+        <v>2</v>
+      </c>
+      <c r="M28">
+        <v>15</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>194</v>
+      </c>
+      <c r="P28">
+        <v>149</v>
+      </c>
+      <c r="Q28">
+        <v>169</v>
+      </c>
+      <c r="R28">
+        <v>2322</v>
+      </c>
+      <c r="S28">
+        <v>1809</v>
+      </c>
+      <c r="T28">
+        <v>1434</v>
+      </c>
+      <c r="U28">
+        <v>2178</v>
+      </c>
+      <c r="V28">
+        <v>1741</v>
+      </c>
+      <c r="W28">
+        <v>1503</v>
+      </c>
+      <c r="X28">
+        <v>183</v>
+      </c>
+      <c r="Y28">
+        <v>150</v>
+      </c>
+      <c r="Z28">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26">
+      <c r="A29" t="s">
+        <v>213</v>
+      </c>
+      <c r="C29">
+        <v>16</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>25</v>
+      </c>
+      <c r="G29">
+        <v>8</v>
+      </c>
+      <c r="H29">
+        <v>5</v>
+      </c>
+      <c r="I29">
+        <v>22</v>
+      </c>
+      <c r="J29">
+        <v>8</v>
+      </c>
+      <c r="K29">
+        <v>10</v>
+      </c>
+      <c r="L29">
+        <v>5</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>278</v>
+      </c>
+      <c r="P29">
+        <v>235</v>
+      </c>
+      <c r="Q29">
+        <v>233</v>
+      </c>
+      <c r="R29">
+        <v>1800</v>
+      </c>
+      <c r="S29">
+        <v>1369</v>
+      </c>
+      <c r="T29">
+        <v>1332</v>
+      </c>
+      <c r="U29">
+        <v>1937</v>
+      </c>
+      <c r="V29">
+        <v>1541</v>
+      </c>
+      <c r="W29">
+        <v>1282</v>
+      </c>
+      <c r="X29">
+        <v>281</v>
+      </c>
+      <c r="Y29">
+        <v>223</v>
+      </c>
+      <c r="Z29">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26">
+      <c r="A30" t="s">
+        <v>214</v>
+      </c>
+      <c r="C30">
+        <v>17</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>22</v>
+      </c>
+      <c r="G30">
+        <v>7</v>
+      </c>
+      <c r="H30">
+        <v>3</v>
+      </c>
+      <c r="I30">
+        <v>11</v>
+      </c>
+      <c r="J30">
+        <v>6</v>
+      </c>
+      <c r="K30">
+        <v>6</v>
+      </c>
+      <c r="L30">
+        <v>11</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>295</v>
+      </c>
+      <c r="P30">
+        <v>271</v>
+      </c>
+      <c r="Q30">
+        <v>274</v>
+      </c>
+      <c r="R30">
+        <v>1458</v>
+      </c>
+      <c r="S30">
+        <v>1216</v>
+      </c>
+      <c r="T30">
+        <v>1136</v>
+      </c>
+      <c r="U30">
+        <v>1823</v>
+      </c>
+      <c r="V30">
+        <v>1581</v>
+      </c>
+      <c r="W30">
+        <v>1276</v>
+      </c>
+      <c r="X30">
+        <v>286</v>
+      </c>
+      <c r="Y30">
+        <v>215</v>
+      </c>
+      <c r="Z30">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26">
+      <c r="A31" t="s">
+        <v>215</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>10</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>6</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>5</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>1256</v>
+      </c>
+      <c r="S31">
+        <v>711</v>
+      </c>
+      <c r="T31">
+        <v>377</v>
+      </c>
+      <c r="U31">
+        <v>861</v>
+      </c>
+      <c r="V31">
+        <v>487</v>
+      </c>
+      <c r="W31">
+        <v>222</v>
+      </c>
+      <c r="X31">
+        <v>3</v>
+      </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26">
+      <c r="A32" t="s">
+        <v>216</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>3</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>5</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>5</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>2091</v>
+      </c>
+      <c r="S32">
+        <v>937</v>
+      </c>
+      <c r="T32">
+        <v>590</v>
+      </c>
+      <c r="U32">
+        <v>1811</v>
+      </c>
+      <c r="V32">
+        <v>912</v>
+      </c>
+      <c r="W32">
+        <v>506</v>
+      </c>
+      <c r="X32">
+        <v>5</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26">
+      <c r="A33" t="s">
+        <v>217</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>3</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>5</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>2240</v>
+      </c>
+      <c r="S33">
+        <v>958</v>
+      </c>
+      <c r="T33">
+        <v>633</v>
+      </c>
+      <c r="U33">
+        <v>1828</v>
+      </c>
+      <c r="V33">
+        <v>947</v>
+      </c>
+      <c r="W33">
+        <v>542</v>
+      </c>
+      <c r="X33">
+        <v>3</v>
+      </c>
+      <c r="Y33">
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26">
+      <c r="A34" s="72" t="s">
+        <v>218</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>5</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>22</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>2251</v>
+      </c>
+      <c r="S34">
+        <v>1039</v>
+      </c>
+      <c r="T34">
+        <v>682</v>
+      </c>
+      <c r="U34">
+        <v>1651</v>
+      </c>
+      <c r="V34">
+        <v>787</v>
+      </c>
+      <c r="W34">
+        <v>600</v>
+      </c>
+      <c r="X34">
+        <v>4</v>
+      </c>
+      <c r="Y34">
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26">
+      <c r="A35" t="s">
+        <v>219</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>316</v>
+      </c>
+      <c r="G35">
+        <v>208</v>
+      </c>
+      <c r="H35">
+        <v>333</v>
+      </c>
+      <c r="I35">
+        <v>266</v>
+      </c>
+      <c r="J35">
+        <v>205</v>
+      </c>
+      <c r="K35">
+        <v>255</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>325</v>
+      </c>
+      <c r="S35">
+        <v>217</v>
+      </c>
+      <c r="T35">
+        <v>345</v>
+      </c>
+      <c r="U35">
+        <v>269</v>
+      </c>
+      <c r="V35">
+        <v>215</v>
+      </c>
+      <c r="W35">
+        <v>256</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26">
+      <c r="A36" t="s">
+        <v>220</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>316</v>
+      </c>
+      <c r="G36">
+        <v>208</v>
+      </c>
+      <c r="H36">
+        <v>333</v>
+      </c>
+      <c r="I36">
+        <v>266</v>
+      </c>
+      <c r="J36">
+        <v>206</v>
+      </c>
+      <c r="K36">
+        <v>254</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>325</v>
+      </c>
+      <c r="S36">
+        <v>217</v>
+      </c>
+      <c r="T36">
+        <v>345</v>
+      </c>
+      <c r="U36">
+        <v>269</v>
+      </c>
+      <c r="V36">
+        <v>215</v>
+      </c>
+      <c r="W36">
+        <v>256</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
+      </c>
+      <c r="Y36">
+        <v>0</v>
+      </c>
+      <c r="Z36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26">
+      <c r="A37" t="s">
+        <v>221</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>315</v>
+      </c>
+      <c r="G37">
+        <v>208</v>
+      </c>
+      <c r="H37">
+        <v>333</v>
+      </c>
+      <c r="I37">
+        <v>265</v>
+      </c>
+      <c r="J37">
+        <v>206</v>
+      </c>
+      <c r="K37">
+        <v>254</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>325</v>
+      </c>
+      <c r="S37">
+        <v>217</v>
+      </c>
+      <c r="T37">
+        <v>345</v>
+      </c>
+      <c r="U37">
+        <v>269</v>
+      </c>
+      <c r="V37">
+        <v>215</v>
+      </c>
+      <c r="W37">
+        <v>256</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
+      </c>
+      <c r="Y37">
+        <v>0</v>
+      </c>
+      <c r="Z37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26">
+      <c r="A38" s="72" t="s">
+        <v>222</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>3</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>864</v>
+      </c>
+      <c r="S38">
+        <v>618</v>
+      </c>
+      <c r="T38">
+        <v>516</v>
+      </c>
+      <c r="U38">
+        <v>1061</v>
+      </c>
+      <c r="V38">
+        <v>630</v>
+      </c>
+      <c r="W38">
+        <v>550</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
+      </c>
+      <c r="Y38">
+        <v>0</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26">
+      <c r="A39" t="s">
+        <v>223</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39">
+        <v>7</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>475</v>
+      </c>
+      <c r="S39">
+        <v>396</v>
+      </c>
+      <c r="T39">
+        <v>311</v>
+      </c>
+      <c r="U39">
+        <v>545</v>
+      </c>
+      <c r="V39">
+        <v>409</v>
+      </c>
+      <c r="W39">
+        <v>432</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <v>0</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26">
+      <c r="A40" t="s">
+        <v>224</v>
+      </c>
+      <c r="C40">
+        <v>20</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>5</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>22</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>4</v>
+      </c>
+      <c r="O40">
+        <v>75</v>
+      </c>
+      <c r="P40">
+        <v>129</v>
+      </c>
+      <c r="Q40">
+        <v>235</v>
+      </c>
+      <c r="R40">
+        <v>71</v>
+      </c>
+      <c r="S40">
+        <v>63</v>
+      </c>
+      <c r="T40">
+        <v>36</v>
+      </c>
+      <c r="U40">
+        <v>134</v>
+      </c>
+      <c r="V40">
+        <v>92</v>
+      </c>
+      <c r="W40">
+        <v>82</v>
+      </c>
+      <c r="X40">
+        <v>69</v>
+      </c>
+      <c r="Y40">
+        <v>62</v>
+      </c>
+      <c r="Z40">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26">
+      <c r="A41" s="72" t="s">
+        <v>225</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>384</v>
+      </c>
+      <c r="G41">
+        <v>329</v>
+      </c>
+      <c r="H41">
+        <v>483</v>
+      </c>
+      <c r="I41">
+        <v>634</v>
+      </c>
+      <c r="J41">
+        <v>360</v>
+      </c>
+      <c r="K41">
+        <v>606</v>
+      </c>
+      <c r="L41">
+        <v>5</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>4</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>2</v>
+      </c>
+      <c r="R41">
+        <v>5626</v>
+      </c>
+      <c r="S41">
+        <v>4680</v>
+      </c>
+      <c r="T41">
+        <v>4082</v>
+      </c>
+      <c r="U41">
+        <v>6413</v>
+      </c>
+      <c r="V41">
+        <v>5163</v>
+      </c>
+      <c r="W41">
+        <v>5047</v>
+      </c>
+      <c r="X41">
+        <v>4</v>
+      </c>
+      <c r="Y41">
+        <v>0</v>
+      </c>
+      <c r="Z41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26">
+      <c r="A42" t="s">
+        <v>226</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+      <c r="F42">
+        <v>6</v>
+      </c>
+      <c r="G42">
+        <v>31</v>
+      </c>
+      <c r="H42">
+        <v>20</v>
+      </c>
+      <c r="I42">
+        <v>125</v>
+      </c>
+      <c r="J42">
+        <v>92</v>
+      </c>
+      <c r="K42">
+        <v>183</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>2</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>210</v>
+      </c>
+      <c r="S42">
+        <v>256</v>
+      </c>
+      <c r="T42">
+        <v>294</v>
+      </c>
+      <c r="U42">
+        <v>1529</v>
+      </c>
+      <c r="V42">
+        <v>1449</v>
+      </c>
+      <c r="W42">
+        <v>1427</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26">
+      <c r="A43" t="s">
+        <v>227</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>24</v>
+      </c>
+      <c r="G43">
+        <v>44</v>
+      </c>
+      <c r="H43">
+        <v>39</v>
+      </c>
+      <c r="I43">
+        <v>288</v>
+      </c>
+      <c r="J43">
+        <v>304</v>
+      </c>
+      <c r="K43">
+        <v>341</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <v>210</v>
+      </c>
+      <c r="S43">
+        <v>256</v>
+      </c>
+      <c r="T43">
+        <v>294</v>
+      </c>
+      <c r="U43">
+        <v>1529</v>
+      </c>
+      <c r="V43">
+        <v>1449</v>
+      </c>
+      <c r="W43">
+        <v>1427</v>
+      </c>
+      <c r="X43">
+        <v>0</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26">
+      <c r="A44" t="s">
+        <v>228</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>49</v>
+      </c>
+      <c r="G44">
+        <v>53</v>
+      </c>
+      <c r="H44">
+        <v>26</v>
+      </c>
+      <c r="I44">
+        <v>60</v>
+      </c>
+      <c r="J44">
+        <v>62</v>
+      </c>
+      <c r="K44">
+        <v>24</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>1</v>
+      </c>
+      <c r="P44">
+        <v>5</v>
+      </c>
+      <c r="Q44">
+        <v>10</v>
+      </c>
+      <c r="R44">
+        <v>2156</v>
+      </c>
+      <c r="S44">
+        <v>1910</v>
+      </c>
+      <c r="T44">
+        <v>1710</v>
+      </c>
+      <c r="U44">
+        <v>2209</v>
+      </c>
+      <c r="V44">
+        <v>2079</v>
+      </c>
+      <c r="W44">
+        <v>1778</v>
+      </c>
+      <c r="X44">
+        <v>1</v>
+      </c>
+      <c r="Y44">
+        <v>6</v>
+      </c>
+      <c r="Z44">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26">
+      <c r="A45" t="s">
+        <v>229</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>46</v>
+      </c>
+      <c r="G45">
+        <v>53</v>
+      </c>
+      <c r="H45">
+        <v>13</v>
+      </c>
+      <c r="I45">
+        <v>56</v>
+      </c>
+      <c r="J45">
+        <v>72</v>
+      </c>
+      <c r="K45">
+        <v>12</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>1</v>
+      </c>
+      <c r="P45">
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <v>10</v>
+      </c>
+      <c r="R45">
+        <v>2079</v>
+      </c>
+      <c r="S45">
+        <v>1672</v>
+      </c>
+      <c r="T45">
+        <v>1542</v>
+      </c>
+      <c r="U45">
+        <v>2058</v>
+      </c>
+      <c r="V45">
+        <v>1791</v>
+      </c>
+      <c r="W45">
+        <v>1654</v>
+      </c>
+      <c r="X45">
+        <v>1</v>
+      </c>
+      <c r="Y45">
+        <v>2</v>
+      </c>
+      <c r="Z45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26">
+      <c r="A46" t="s">
+        <v>230</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>24</v>
+      </c>
+      <c r="G46">
+        <v>35</v>
+      </c>
+      <c r="H46">
+        <v>37</v>
+      </c>
+      <c r="I46">
+        <v>52</v>
+      </c>
+      <c r="J46">
+        <v>64</v>
+      </c>
+      <c r="K46">
+        <v>12</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>4</v>
+      </c>
+      <c r="P46">
+        <v>7</v>
+      </c>
+      <c r="Q46">
+        <v>9</v>
+      </c>
+      <c r="R46">
+        <v>1733</v>
+      </c>
+      <c r="S46">
+        <v>1246</v>
+      </c>
+      <c r="T46">
+        <v>1336</v>
+      </c>
+      <c r="U46">
+        <v>1721</v>
+      </c>
+      <c r="V46">
+        <v>1319</v>
+      </c>
+      <c r="W46">
+        <v>1451</v>
+      </c>
+      <c r="X46">
+        <v>4</v>
+      </c>
+      <c r="Y46">
+        <v>7</v>
+      </c>
+      <c r="Z46">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26">
+      <c r="A47" t="s">
+        <v>231</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>32</v>
+      </c>
+      <c r="G47">
+        <v>40</v>
+      </c>
+      <c r="H47">
+        <v>43</v>
+      </c>
+      <c r="I47">
+        <v>61</v>
+      </c>
+      <c r="J47">
+        <v>65</v>
+      </c>
+      <c r="K47">
+        <v>18</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>5</v>
+      </c>
+      <c r="P47">
+        <v>6</v>
+      </c>
+      <c r="Q47">
+        <v>9</v>
+      </c>
+      <c r="R47">
+        <v>1728</v>
+      </c>
+      <c r="S47">
+        <v>1372</v>
+      </c>
+      <c r="T47">
+        <v>1340</v>
+      </c>
+      <c r="U47">
+        <v>2025</v>
+      </c>
+      <c r="V47">
+        <v>1583</v>
+      </c>
+      <c r="W47">
+        <v>1815</v>
+      </c>
+      <c r="X47">
+        <v>5</v>
+      </c>
+      <c r="Y47">
+        <v>6</v>
+      </c>
+      <c r="Z47">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26">
+      <c r="A48" t="s">
+        <v>232</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>31</v>
+      </c>
+      <c r="G48">
+        <v>40</v>
+      </c>
+      <c r="H48">
+        <v>44</v>
+      </c>
+      <c r="I48">
+        <v>71</v>
+      </c>
+      <c r="J48">
+        <v>65</v>
+      </c>
+      <c r="K48">
+        <v>19</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>5</v>
+      </c>
+      <c r="P48">
+        <v>8</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <v>1831</v>
+      </c>
+      <c r="S48">
+        <v>1494</v>
+      </c>
+      <c r="T48">
+        <v>1452</v>
+      </c>
+      <c r="U48">
+        <v>2083</v>
+      </c>
+      <c r="V48">
+        <v>1770</v>
+      </c>
+      <c r="W48">
+        <v>2019</v>
+      </c>
+      <c r="X48">
+        <v>5</v>
+      </c>
+      <c r="Y48">
+        <v>8</v>
+      </c>
+      <c r="Z48">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26">
+      <c r="A49" t="s">
+        <v>233</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>22</v>
+      </c>
+      <c r="G49">
+        <v>19</v>
+      </c>
+      <c r="H49">
+        <v>32</v>
+      </c>
+      <c r="I49">
+        <v>40</v>
+      </c>
+      <c r="J49">
+        <v>21</v>
+      </c>
+      <c r="K49">
+        <v>8</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>1</v>
+      </c>
+      <c r="P49">
+        <v>2</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <v>1679</v>
+      </c>
+      <c r="S49">
+        <v>1653</v>
+      </c>
+      <c r="T49">
+        <v>1450</v>
+      </c>
+      <c r="U49">
+        <v>2113</v>
+      </c>
+      <c r="V49">
+        <v>2000</v>
+      </c>
+      <c r="W49">
+        <v>1853</v>
+      </c>
+      <c r="X49">
+        <v>1</v>
+      </c>
+      <c r="Y49">
+        <v>2</v>
+      </c>
+      <c r="Z49">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26">
+      <c r="A50" t="s">
+        <v>234</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>31</v>
+      </c>
+      <c r="G50">
+        <v>26</v>
+      </c>
+      <c r="H50">
+        <v>8</v>
+      </c>
+      <c r="I50">
+        <v>16</v>
+      </c>
+      <c r="J50">
+        <v>22</v>
+      </c>
+      <c r="K50">
+        <v>33</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>2</v>
+      </c>
+      <c r="P50">
+        <v>2</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <v>1401</v>
+      </c>
+      <c r="S50">
+        <v>1404</v>
+      </c>
+      <c r="T50">
+        <v>1081</v>
+      </c>
+      <c r="U50">
+        <v>1634</v>
+      </c>
+      <c r="V50">
+        <v>1690</v>
+      </c>
+      <c r="W50">
+        <v>1575</v>
+      </c>
+      <c r="X50">
+        <v>2</v>
+      </c>
+      <c r="Y50">
+        <v>2</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26">
+      <c r="A51" t="s">
+        <v>235</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>28</v>
+      </c>
+      <c r="G51">
+        <v>27</v>
+      </c>
+      <c r="H51">
+        <v>3</v>
+      </c>
+      <c r="I51">
+        <v>12</v>
+      </c>
+      <c r="J51">
+        <v>23</v>
+      </c>
+      <c r="K51">
+        <v>27</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>2</v>
+      </c>
+      <c r="P51">
+        <v>5</v>
+      </c>
+      <c r="Q51">
+        <v>22</v>
+      </c>
+      <c r="R51">
+        <v>1411</v>
+      </c>
+      <c r="S51">
+        <v>1331</v>
+      </c>
+      <c r="T51">
+        <v>1073</v>
+      </c>
+      <c r="U51">
+        <v>1369</v>
+      </c>
+      <c r="V51">
+        <v>1376</v>
+      </c>
+      <c r="W51">
+        <v>1142</v>
+      </c>
+      <c r="X51">
+        <v>2</v>
+      </c>
+      <c r="Y51">
+        <v>2</v>
+      </c>
+      <c r="Z51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26">
+      <c r="A52" t="s">
+        <v>236</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>35</v>
+      </c>
+      <c r="G52">
+        <v>25</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>37</v>
+      </c>
+      <c r="J52">
+        <v>25</v>
+      </c>
+      <c r="K52">
+        <v>28</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <v>14</v>
+      </c>
+      <c r="Q52">
+        <v>21</v>
+      </c>
+      <c r="R52">
+        <v>1654</v>
+      </c>
+      <c r="S52">
+        <v>1591</v>
+      </c>
+      <c r="T52">
+        <v>1359</v>
+      </c>
+      <c r="U52">
+        <v>1580</v>
+      </c>
+      <c r="V52">
+        <v>1680</v>
+      </c>
+      <c r="W52">
+        <v>1458</v>
+      </c>
+      <c r="X52">
+        <v>0</v>
+      </c>
+      <c r="Y52">
+        <v>14</v>
+      </c>
+      <c r="Z52">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26">
+      <c r="A53" t="s">
+        <v>237</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>17</v>
+      </c>
+      <c r="G53">
+        <v>19</v>
+      </c>
+      <c r="H53">
+        <v>29</v>
+      </c>
+      <c r="I53">
+        <v>50</v>
+      </c>
+      <c r="J53">
+        <v>22</v>
+      </c>
+      <c r="K53">
+        <v>29</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>2</v>
+      </c>
+      <c r="P53">
+        <v>6</v>
+      </c>
+      <c r="Q53">
+        <v>10</v>
+      </c>
+      <c r="R53">
+        <v>1959</v>
+      </c>
+      <c r="S53">
+        <v>2212</v>
+      </c>
+      <c r="T53">
+        <v>1958</v>
+      </c>
+      <c r="U53">
+        <v>2160</v>
+      </c>
+      <c r="V53">
+        <v>2300</v>
+      </c>
+      <c r="W53">
+        <v>2147</v>
+      </c>
+      <c r="X53">
+        <v>1</v>
+      </c>
+      <c r="Y53">
+        <v>9</v>
+      </c>
+      <c r="Z53">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26">
+      <c r="A54" t="s">
+        <v>238</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>11</v>
+      </c>
+      <c r="G54">
+        <v>29</v>
+      </c>
+      <c r="H54">
+        <v>28</v>
+      </c>
+      <c r="I54">
+        <v>28</v>
+      </c>
+      <c r="J54">
+        <v>20</v>
+      </c>
+      <c r="K54">
+        <v>29</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>2</v>
+      </c>
+      <c r="P54">
+        <v>7</v>
+      </c>
+      <c r="Q54">
+        <v>10</v>
+      </c>
+      <c r="R54">
+        <v>1763</v>
+      </c>
+      <c r="S54">
+        <v>1845</v>
+      </c>
+      <c r="T54">
+        <v>1853</v>
+      </c>
+      <c r="U54">
+        <v>2191</v>
+      </c>
+      <c r="V54">
+        <v>2269</v>
+      </c>
+      <c r="W54">
+        <v>2333</v>
+      </c>
+      <c r="X54">
+        <v>2</v>
+      </c>
+      <c r="Y54">
+        <v>7</v>
+      </c>
+      <c r="Z54">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26">
+      <c r="A55" t="s">
+        <v>239</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>15</v>
+      </c>
+      <c r="G55">
+        <v>42</v>
+      </c>
+      <c r="H55">
+        <v>36</v>
+      </c>
+      <c r="I55">
+        <v>26</v>
+      </c>
+      <c r="J55">
+        <v>27</v>
+      </c>
+      <c r="K55">
+        <v>38</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <v>2</v>
+      </c>
+      <c r="P55">
+        <v>1</v>
+      </c>
+      <c r="Q55">
+        <v>9</v>
+      </c>
+      <c r="R55">
+        <v>1485</v>
+      </c>
+      <c r="S55">
+        <v>1732</v>
+      </c>
+      <c r="T55">
+        <v>1621</v>
+      </c>
+      <c r="U55">
+        <v>1981</v>
+      </c>
+      <c r="V55">
+        <v>2113</v>
+      </c>
+      <c r="W55">
+        <v>2009</v>
+      </c>
+      <c r="X55">
+        <v>2</v>
+      </c>
+      <c r="Y55">
+        <v>1</v>
+      </c>
+      <c r="Z55">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26">
+      <c r="A56" t="s">
+        <v>240</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>11</v>
+      </c>
+      <c r="G56">
+        <v>38</v>
+      </c>
+      <c r="H56">
+        <v>32</v>
+      </c>
+      <c r="I56">
+        <v>10</v>
+      </c>
+      <c r="J56">
+        <v>43</v>
+      </c>
+      <c r="K56">
+        <v>31</v>
+      </c>
+      <c r="L56">
+        <v>1</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <v>2</v>
+      </c>
+      <c r="P56">
+        <v>1</v>
+      </c>
+      <c r="Q56">
+        <v>2</v>
+      </c>
+      <c r="R56">
+        <v>1084</v>
+      </c>
+      <c r="S56">
+        <v>1078</v>
+      </c>
+      <c r="T56">
+        <v>1221</v>
+      </c>
+      <c r="U56">
+        <v>1579</v>
+      </c>
+      <c r="V56">
+        <v>1629</v>
+      </c>
+      <c r="W56">
+        <v>1649</v>
+      </c>
+      <c r="X56">
+        <v>2</v>
+      </c>
+      <c r="Y56">
+        <v>1</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26">
+      <c r="A57" t="s">
+        <v>241</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>10</v>
+      </c>
+      <c r="G57">
+        <v>36</v>
+      </c>
+      <c r="H57">
+        <v>29</v>
+      </c>
+      <c r="I57">
+        <v>12</v>
+      </c>
+      <c r="J57">
+        <v>41</v>
+      </c>
+      <c r="K57">
+        <v>32</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <v>5</v>
+      </c>
+      <c r="P57">
+        <v>4</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
+      </c>
+      <c r="R57">
+        <v>996</v>
+      </c>
+      <c r="S57">
+        <v>962</v>
+      </c>
+      <c r="T57">
+        <v>987</v>
+      </c>
+      <c r="U57">
+        <v>1307</v>
+      </c>
+      <c r="V57">
+        <v>1400</v>
+      </c>
+      <c r="W57">
+        <v>1314</v>
+      </c>
+      <c r="X57">
+        <v>4</v>
+      </c>
+      <c r="Y57">
+        <v>1</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26">
+      <c r="A58" t="s">
+        <v>242</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>4</v>
+      </c>
+      <c r="G58">
+        <v>13</v>
+      </c>
+      <c r="H58">
+        <v>9</v>
+      </c>
+      <c r="I58">
+        <v>6</v>
+      </c>
+      <c r="J58">
+        <v>26</v>
+      </c>
+      <c r="K58">
+        <v>10</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+      <c r="R58">
+        <v>516</v>
+      </c>
+      <c r="S58">
+        <v>559</v>
+      </c>
+      <c r="T58">
+        <v>569</v>
+      </c>
+      <c r="U58">
+        <v>512</v>
+      </c>
+      <c r="V58">
+        <v>507</v>
+      </c>
+      <c r="W58">
+        <v>438</v>
+      </c>
+      <c r="X58">
+        <v>0</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26">
+      <c r="A59" t="s">
+        <v>243</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>3</v>
+      </c>
+      <c r="G59">
+        <v>12</v>
+      </c>
+      <c r="H59">
+        <v>9</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>30</v>
+      </c>
+      <c r="K59">
+        <v>9</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>0</v>
+      </c>
+      <c r="R59">
+        <v>514</v>
+      </c>
+      <c r="S59">
+        <v>583</v>
+      </c>
+      <c r="T59">
+        <v>578</v>
+      </c>
+      <c r="U59">
+        <v>485</v>
+      </c>
+      <c r="V59">
+        <v>483</v>
+      </c>
+      <c r="W59">
+        <v>453</v>
+      </c>
+      <c r="X59">
+        <v>0</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26">
+      <c r="A60" t="s">
+        <v>244</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>2</v>
+      </c>
+      <c r="G60">
+        <v>16</v>
+      </c>
+      <c r="H60">
+        <v>9</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <v>34</v>
+      </c>
+      <c r="K60">
+        <v>9</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+      <c r="R60">
+        <v>568</v>
+      </c>
+      <c r="S60">
+        <v>592</v>
+      </c>
+      <c r="T60">
+        <v>594</v>
+      </c>
+      <c r="U60">
+        <v>462</v>
+      </c>
+      <c r="V60">
+        <v>475</v>
+      </c>
+      <c r="W60">
+        <v>476</v>
+      </c>
+      <c r="X60">
+        <v>0</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26">
+      <c r="A61" t="s">
+        <v>245</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>2</v>
+      </c>
+      <c r="G61">
+        <v>16</v>
+      </c>
+      <c r="H61">
+        <v>9</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>34</v>
+      </c>
+      <c r="K61">
+        <v>11</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+      <c r="R61">
+        <v>586</v>
+      </c>
+      <c r="S61">
+        <v>607</v>
+      </c>
+      <c r="T61">
+        <v>611</v>
+      </c>
+      <c r="U61">
+        <v>465</v>
+      </c>
+      <c r="V61">
+        <v>493</v>
+      </c>
+      <c r="W61">
+        <v>487</v>
+      </c>
+      <c r="X61">
+        <v>0</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26">
+      <c r="A62" t="s">
+        <v>246</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>19</v>
+      </c>
+      <c r="G62">
+        <v>14</v>
+      </c>
+      <c r="H62">
+        <v>2</v>
+      </c>
+      <c r="I62">
+        <v>9</v>
+      </c>
+      <c r="J62">
+        <v>19</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <v>6</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>29</v>
+      </c>
+      <c r="R62">
+        <v>1166</v>
+      </c>
+      <c r="S62">
+        <v>1270</v>
+      </c>
+      <c r="T62">
+        <v>1054</v>
+      </c>
+      <c r="U62">
+        <v>918</v>
+      </c>
+      <c r="V62">
+        <v>885</v>
+      </c>
+      <c r="W62">
+        <v>797</v>
+      </c>
+      <c r="X62">
+        <v>6</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26">
+      <c r="A63" t="s">
+        <v>247</v>
+      </c>
+      <c r="C63">
+        <v>5</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>32</v>
+      </c>
+      <c r="G63">
+        <v>11</v>
+      </c>
+      <c r="H63">
+        <v>2</v>
+      </c>
+      <c r="I63">
+        <v>7</v>
+      </c>
+      <c r="J63">
+        <v>12</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <v>18</v>
+      </c>
+      <c r="P63">
+        <v>8</v>
+      </c>
+      <c r="Q63">
+        <v>31</v>
+      </c>
+      <c r="R63">
+        <v>1827</v>
+      </c>
+      <c r="S63">
+        <v>1771</v>
+      </c>
+      <c r="T63">
+        <v>1555</v>
+      </c>
+      <c r="U63">
+        <v>1395</v>
+      </c>
+      <c r="V63">
+        <v>1229</v>
+      </c>
+      <c r="W63">
+        <v>1112</v>
+      </c>
+      <c r="X63">
+        <v>19</v>
+      </c>
+      <c r="Y63">
+        <v>8</v>
+      </c>
+      <c r="Z63">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26">
+      <c r="A64" t="s">
+        <v>248</v>
+      </c>
+      <c r="C64">
+        <v>5</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>34</v>
+      </c>
+      <c r="G64">
+        <v>9</v>
+      </c>
+      <c r="H64">
+        <v>3</v>
+      </c>
+      <c r="I64">
+        <v>14</v>
+      </c>
+      <c r="J64">
+        <v>12</v>
+      </c>
+      <c r="K64">
+        <v>2</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>15</v>
+      </c>
+      <c r="P64">
+        <v>8</v>
+      </c>
+      <c r="Q64">
+        <v>27</v>
+      </c>
+      <c r="R64">
+        <v>2208</v>
+      </c>
+      <c r="S64">
+        <v>2088</v>
+      </c>
+      <c r="T64">
+        <v>1876</v>
+      </c>
+      <c r="U64">
+        <v>1894</v>
+      </c>
+      <c r="V64">
+        <v>1899</v>
+      </c>
+      <c r="W64">
+        <v>1682</v>
+      </c>
+      <c r="X64">
+        <v>15</v>
+      </c>
+      <c r="Y64">
+        <v>8</v>
+      </c>
+      <c r="Z64">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26">
+      <c r="A65" t="s">
+        <v>249</v>
+      </c>
+      <c r="C65">
+        <v>5</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>34</v>
+      </c>
+      <c r="G65">
+        <v>9</v>
+      </c>
+      <c r="H65">
+        <v>3</v>
+      </c>
+      <c r="I65">
+        <v>14</v>
+      </c>
+      <c r="J65">
+        <v>12</v>
+      </c>
+      <c r="K65">
+        <v>2</v>
+      </c>
+      <c r="L65">
+        <v>5</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <v>15</v>
+      </c>
+      <c r="P65">
+        <v>8</v>
+      </c>
+      <c r="Q65">
+        <v>27</v>
+      </c>
+      <c r="R65">
+        <v>2262</v>
+      </c>
+      <c r="S65">
+        <v>2121</v>
+      </c>
+      <c r="T65">
+        <v>1864</v>
+      </c>
+      <c r="U65">
+        <v>1946</v>
+      </c>
+      <c r="V65">
+        <v>1961</v>
+      </c>
+      <c r="W65">
+        <v>1721</v>
+      </c>
+      <c r="X65">
+        <v>15</v>
+      </c>
+      <c r="Y65">
+        <v>8</v>
+      </c>
+      <c r="Z65">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26">
+      <c r="A66" t="s">
+        <v>250</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>109</v>
+      </c>
+      <c r="G66">
+        <v>31</v>
+      </c>
+      <c r="H66">
+        <v>33</v>
+      </c>
+      <c r="I66">
+        <v>97</v>
+      </c>
+      <c r="J66">
+        <v>15</v>
+      </c>
+      <c r="K66">
+        <v>34</v>
+      </c>
+      <c r="L66">
+        <v>5</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <v>19</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>23</v>
+      </c>
+      <c r="R66">
+        <v>2396</v>
+      </c>
+      <c r="S66">
+        <v>1887</v>
+      </c>
+      <c r="T66">
+        <v>1819</v>
+      </c>
+      <c r="U66">
+        <v>2133</v>
+      </c>
+      <c r="V66">
+        <v>1996</v>
+      </c>
+      <c r="W66">
+        <v>1672</v>
+      </c>
+      <c r="X66">
+        <v>19</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26">
+      <c r="A67" t="s">
+        <v>251</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>120</v>
+      </c>
+      <c r="G67">
+        <v>30</v>
+      </c>
+      <c r="H67">
+        <v>31</v>
+      </c>
+      <c r="I67">
+        <v>100</v>
+      </c>
+      <c r="J67">
+        <v>12</v>
+      </c>
+      <c r="K67">
+        <v>35</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <v>10</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>28</v>
+      </c>
+      <c r="R67">
+        <v>2222</v>
+      </c>
+      <c r="S67">
+        <v>1828</v>
+      </c>
+      <c r="T67">
+        <v>1673</v>
+      </c>
+      <c r="U67">
+        <v>2098</v>
+      </c>
+      <c r="V67">
+        <v>1853</v>
+      </c>
+      <c r="W67">
+        <v>1618</v>
+      </c>
+      <c r="X67">
+        <v>14</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26">
+      <c r="A68" t="s">
+        <v>252</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>127</v>
+      </c>
+      <c r="G68">
+        <v>26</v>
+      </c>
+      <c r="H68">
+        <v>32</v>
+      </c>
+      <c r="I68">
+        <v>101</v>
+      </c>
+      <c r="J68">
+        <v>12</v>
+      </c>
+      <c r="K68">
+        <v>35</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <v>14</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>28</v>
+      </c>
+      <c r="R68">
+        <v>2187</v>
+      </c>
+      <c r="S68">
+        <v>1757</v>
+      </c>
+      <c r="T68">
+        <v>1619</v>
+      </c>
+      <c r="U68">
+        <v>2118</v>
+      </c>
+      <c r="V68">
+        <v>1866</v>
+      </c>
+      <c r="W68">
+        <v>1633</v>
+      </c>
+      <c r="X68">
+        <v>19</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26">
+      <c r="A69" s="72" t="s">
+        <v>253</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>5</v>
+      </c>
+      <c r="F69">
+        <v>46</v>
+      </c>
+      <c r="G69">
+        <v>39</v>
+      </c>
+      <c r="H69">
+        <v>93</v>
+      </c>
+      <c r="I69">
+        <v>64</v>
+      </c>
+      <c r="J69">
+        <v>31</v>
+      </c>
+      <c r="K69">
+        <v>39</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>5</v>
+      </c>
+      <c r="O69">
+        <v>20</v>
+      </c>
+      <c r="P69">
+        <v>12</v>
+      </c>
+      <c r="Q69">
+        <v>28</v>
+      </c>
+      <c r="R69">
+        <v>2217</v>
+      </c>
+      <c r="S69">
+        <v>1561</v>
+      </c>
+      <c r="T69">
+        <v>1550</v>
+      </c>
+      <c r="U69">
+        <v>2657</v>
+      </c>
+      <c r="V69">
+        <v>2213</v>
+      </c>
+      <c r="W69">
+        <v>2210</v>
+      </c>
+      <c r="X69">
+        <v>20</v>
+      </c>
+      <c r="Y69">
+        <v>11</v>
+      </c>
+      <c r="Z69">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26">
+      <c r="A70" t="s">
+        <v>254</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>16</v>
+      </c>
+      <c r="G70">
+        <v>30</v>
+      </c>
+      <c r="H70">
+        <v>101</v>
+      </c>
+      <c r="I70">
+        <v>11</v>
+      </c>
+      <c r="J70">
+        <v>37</v>
+      </c>
+      <c r="K70">
+        <v>75</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <v>14</v>
+      </c>
+      <c r="P70">
+        <v>18</v>
+      </c>
+      <c r="Q70">
+        <v>9</v>
+      </c>
+      <c r="R70">
+        <v>1410</v>
+      </c>
+      <c r="S70">
+        <v>1164</v>
+      </c>
+      <c r="T70">
+        <v>1073</v>
+      </c>
+      <c r="U70">
+        <v>1558</v>
+      </c>
+      <c r="V70">
+        <v>1123</v>
+      </c>
+      <c r="W70">
+        <v>1132</v>
+      </c>
+      <c r="X70">
+        <v>8</v>
+      </c>
+      <c r="Y70">
+        <v>11</v>
+      </c>
+      <c r="Z70">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26">
+      <c r="A71" t="s">
+        <v>255</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>25</v>
+      </c>
+      <c r="G71">
+        <v>16</v>
+      </c>
+      <c r="H71">
+        <v>53</v>
+      </c>
+      <c r="I71">
+        <v>12</v>
+      </c>
+      <c r="J71">
+        <v>37</v>
+      </c>
+      <c r="K71">
+        <v>120</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <v>26</v>
+      </c>
+      <c r="P71">
+        <v>18</v>
+      </c>
+      <c r="Q71">
+        <v>22</v>
+      </c>
+      <c r="R71">
+        <v>1135</v>
+      </c>
+      <c r="S71">
+        <v>981</v>
+      </c>
+      <c r="T71">
+        <v>932</v>
+      </c>
+      <c r="U71">
+        <v>1393</v>
+      </c>
+      <c r="V71">
+        <v>1171</v>
+      </c>
+      <c r="W71">
+        <v>1050</v>
+      </c>
+      <c r="X71">
+        <v>23</v>
+      </c>
+      <c r="Y71">
+        <v>11</v>
+      </c>
+      <c r="Z71">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26">
+      <c r="A72" t="s">
+        <v>256</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>10</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>31</v>
+      </c>
+      <c r="G72">
+        <v>3</v>
+      </c>
+      <c r="H72">
+        <v>2</v>
+      </c>
+      <c r="I72">
+        <v>31</v>
+      </c>
+      <c r="J72">
+        <v>23</v>
+      </c>
+      <c r="K72">
+        <v>72</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="O72">
+        <v>23</v>
+      </c>
+      <c r="P72">
+        <v>18</v>
+      </c>
+      <c r="Q72">
+        <v>33</v>
+      </c>
+      <c r="R72">
+        <v>1110</v>
+      </c>
+      <c r="S72">
+        <v>931</v>
+      </c>
+      <c r="T72">
+        <v>868</v>
+      </c>
+      <c r="U72">
+        <v>1396</v>
+      </c>
+      <c r="V72">
+        <v>1267</v>
+      </c>
+      <c r="W72">
+        <v>1217</v>
+      </c>
+      <c r="X72">
+        <v>27</v>
+      </c>
+      <c r="Y72">
+        <v>18</v>
+      </c>
+      <c r="Z72">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26">
+      <c r="A73" t="s">
+        <v>257</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>10</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>12</v>
+      </c>
+      <c r="G73">
+        <v>6</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+      <c r="I73">
+        <v>22</v>
+      </c>
+      <c r="J73">
+        <v>6</v>
+      </c>
+      <c r="K73">
+        <v>1</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>10</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <v>8</v>
+      </c>
+      <c r="P73">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>20</v>
+      </c>
+      <c r="R73">
+        <v>274</v>
+      </c>
+      <c r="S73">
+        <v>145</v>
+      </c>
+      <c r="T73">
+        <v>179</v>
+      </c>
+      <c r="U73">
+        <v>484</v>
+      </c>
+      <c r="V73">
+        <v>293</v>
+      </c>
+      <c r="W73">
+        <v>393</v>
+      </c>
+      <c r="X73">
+        <v>8</v>
+      </c>
+      <c r="Y73">
+        <v>7</v>
+      </c>
+      <c r="Z73">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26">
+      <c r="A74" t="s">
+        <v>258</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>5</v>
+      </c>
+      <c r="G74">
+        <v>6</v>
+      </c>
+      <c r="H74">
+        <v>1</v>
+      </c>
+      <c r="I74">
+        <v>22</v>
+      </c>
+      <c r="J74">
+        <v>6</v>
+      </c>
+      <c r="K74">
+        <v>3</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>10</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74">
+        <v>1</v>
+      </c>
+      <c r="P74">
+        <v>3</v>
+      </c>
+      <c r="Q74">
+        <v>7</v>
+      </c>
+      <c r="R74">
+        <v>185</v>
+      </c>
+      <c r="S74">
+        <v>77</v>
+      </c>
+      <c r="T74">
+        <v>122</v>
+      </c>
+      <c r="U74">
+        <v>425</v>
+      </c>
+      <c r="V74">
+        <v>269</v>
+      </c>
+      <c r="W74">
+        <v>282</v>
+      </c>
+      <c r="X74">
+        <v>1</v>
+      </c>
+      <c r="Y74">
+        <v>3</v>
+      </c>
+      <c r="Z74">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26">
+      <c r="A75" t="s">
+        <v>259</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>61</v>
+      </c>
+      <c r="G75">
+        <v>63</v>
+      </c>
+      <c r="H75">
+        <v>100</v>
+      </c>
+      <c r="I75">
+        <v>34</v>
+      </c>
+      <c r="J75">
+        <v>29</v>
+      </c>
+      <c r="K75">
+        <v>21</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+      <c r="P75">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>1</v>
+      </c>
+      <c r="R75">
+        <v>1030</v>
+      </c>
+      <c r="S75">
+        <v>895</v>
+      </c>
+      <c r="T75">
+        <v>882</v>
+      </c>
+      <c r="U75">
+        <v>461</v>
+      </c>
+      <c r="V75">
+        <v>464</v>
+      </c>
+      <c r="W75">
+        <v>440</v>
+      </c>
+      <c r="X75">
+        <v>0</v>
+      </c>
+      <c r="Y75">
+        <v>0</v>
+      </c>
+      <c r="Z75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26">
+      <c r="A76" t="s">
+        <v>260</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>61</v>
+      </c>
+      <c r="G76">
+        <v>63</v>
+      </c>
+      <c r="H76">
+        <v>98</v>
+      </c>
+      <c r="I76">
+        <v>34</v>
+      </c>
+      <c r="J76">
+        <v>29</v>
+      </c>
+      <c r="K76">
+        <v>21</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+      <c r="P76">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>1</v>
+      </c>
+      <c r="R76">
+        <v>1030</v>
+      </c>
+      <c r="S76">
+        <v>895</v>
+      </c>
+      <c r="T76">
+        <v>882</v>
+      </c>
+      <c r="U76">
+        <v>461</v>
+      </c>
+      <c r="V76">
+        <v>464</v>
+      </c>
+      <c r="W76">
+        <v>440</v>
+      </c>
+      <c r="X76">
+        <v>0</v>
+      </c>
+      <c r="Y76">
+        <v>0</v>
+      </c>
+      <c r="Z76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26">
+      <c r="A77" t="s">
+        <v>261</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>61</v>
+      </c>
+      <c r="G77">
+        <v>63</v>
+      </c>
+      <c r="H77">
+        <v>97</v>
+      </c>
+      <c r="I77">
+        <v>34</v>
+      </c>
+      <c r="J77">
+        <v>29</v>
+      </c>
+      <c r="K77">
+        <v>21</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+      <c r="P77">
+        <v>0</v>
+      </c>
+      <c r="Q77">
+        <v>1</v>
+      </c>
+      <c r="R77">
+        <v>1030</v>
+      </c>
+      <c r="S77">
+        <v>895</v>
+      </c>
+      <c r="T77">
+        <v>882</v>
+      </c>
+      <c r="U77">
+        <v>461</v>
+      </c>
+      <c r="V77">
+        <v>464</v>
+      </c>
+      <c r="W77">
+        <v>440</v>
+      </c>
+      <c r="X77">
+        <v>0</v>
+      </c>
+      <c r="Y77">
+        <v>0</v>
+      </c>
+      <c r="Z77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:26">
+      <c r="A78" t="s">
+        <v>262</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>61</v>
+      </c>
+      <c r="G78">
+        <v>63</v>
+      </c>
+      <c r="H78">
+        <v>96</v>
+      </c>
+      <c r="I78">
+        <v>35</v>
+      </c>
+      <c r="J78">
+        <v>30</v>
+      </c>
+      <c r="K78">
+        <v>21</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>0</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+      <c r="P78">
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <v>1</v>
+      </c>
+      <c r="R78">
+        <v>1030</v>
+      </c>
+      <c r="S78">
+        <v>895</v>
+      </c>
+      <c r="T78">
+        <v>882</v>
+      </c>
+      <c r="U78">
+        <v>461</v>
+      </c>
+      <c r="V78">
+        <v>464</v>
+      </c>
+      <c r="W78">
+        <v>440</v>
+      </c>
+      <c r="X78">
+        <v>0</v>
+      </c>
+      <c r="Y78">
+        <v>0</v>
+      </c>
+      <c r="Z78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:26">
+      <c r="A79" t="s">
+        <v>263</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>62</v>
+      </c>
+      <c r="G79">
+        <v>62</v>
+      </c>
+      <c r="H79">
+        <v>96</v>
+      </c>
+      <c r="I79">
+        <v>35</v>
+      </c>
+      <c r="J79">
+        <v>29</v>
+      </c>
+      <c r="K79">
+        <v>22</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>0</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+      <c r="P79">
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <v>1</v>
+      </c>
+      <c r="R79">
+        <v>1030</v>
+      </c>
+      <c r="S79">
+        <v>895</v>
+      </c>
+      <c r="T79">
+        <v>882</v>
+      </c>
+      <c r="U79">
+        <v>461</v>
+      </c>
+      <c r="V79">
+        <v>464</v>
+      </c>
+      <c r="W79">
+        <v>440</v>
+      </c>
+      <c r="X79">
+        <v>0</v>
+      </c>
+      <c r="Y79">
+        <v>0</v>
+      </c>
+      <c r="Z79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:26">
+      <c r="A80" t="s">
+        <v>264</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>62</v>
+      </c>
+      <c r="G80">
+        <v>63</v>
+      </c>
+      <c r="H80">
+        <v>96</v>
+      </c>
+      <c r="I80">
+        <v>35</v>
+      </c>
+      <c r="J80">
+        <v>37</v>
+      </c>
+      <c r="K80">
+        <v>22</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>0</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
+      <c r="P80">
+        <v>0</v>
+      </c>
+      <c r="Q80">
+        <v>1</v>
+      </c>
+      <c r="R80">
+        <v>1030</v>
+      </c>
+      <c r="S80">
+        <v>895</v>
+      </c>
+      <c r="T80">
+        <v>882</v>
+      </c>
+      <c r="U80">
+        <v>461</v>
+      </c>
+      <c r="V80">
+        <v>464</v>
+      </c>
+      <c r="W80">
+        <v>440</v>
+      </c>
+      <c r="X80">
+        <v>0</v>
+      </c>
+      <c r="Y80">
+        <v>0</v>
+      </c>
+      <c r="Z80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:26">
+      <c r="A81" t="s">
+        <v>265</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>64</v>
+      </c>
+      <c r="G81">
+        <v>76</v>
+      </c>
+      <c r="H81">
+        <v>96</v>
+      </c>
+      <c r="I81">
+        <v>35</v>
+      </c>
+      <c r="J81">
+        <v>37</v>
+      </c>
+      <c r="K81">
+        <v>22</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>0</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+      <c r="P81">
+        <v>0</v>
+      </c>
+      <c r="Q81">
+        <v>1</v>
+      </c>
+      <c r="R81">
+        <v>1030</v>
+      </c>
+      <c r="S81">
+        <v>895</v>
+      </c>
+      <c r="T81">
+        <v>882</v>
+      </c>
+      <c r="U81">
+        <v>461</v>
+      </c>
+      <c r="V81">
+        <v>464</v>
+      </c>
+      <c r="W81">
+        <v>440</v>
+      </c>
+      <c r="X81">
+        <v>0</v>
+      </c>
+      <c r="Y81">
+        <v>0</v>
+      </c>
+      <c r="Z81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:26">
+      <c r="A82" t="s">
+        <v>266</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>64</v>
+      </c>
+      <c r="G82">
+        <v>76</v>
+      </c>
+      <c r="H82">
+        <v>96</v>
+      </c>
+      <c r="I82">
+        <v>35</v>
+      </c>
+      <c r="J82">
+        <v>37</v>
+      </c>
+      <c r="K82">
+        <v>22</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>0</v>
+      </c>
+      <c r="O82">
+        <v>0</v>
+      </c>
+      <c r="P82">
+        <v>0</v>
+      </c>
+      <c r="Q82">
+        <v>1</v>
+      </c>
+      <c r="R82">
+        <v>1030</v>
+      </c>
+      <c r="S82">
+        <v>895</v>
+      </c>
+      <c r="T82">
+        <v>882</v>
+      </c>
+      <c r="U82">
+        <v>461</v>
+      </c>
+      <c r="V82">
+        <v>464</v>
+      </c>
+      <c r="W82">
+        <v>440</v>
+      </c>
+      <c r="X82">
+        <v>0</v>
+      </c>
+      <c r="Y82">
+        <v>0</v>
+      </c>
+      <c r="Z82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:26">
+      <c r="A83" t="s">
+        <v>267</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>70</v>
+      </c>
+      <c r="G83">
+        <v>77</v>
+      </c>
+      <c r="H83">
+        <v>96</v>
+      </c>
+      <c r="I83">
+        <v>35</v>
+      </c>
+      <c r="J83">
+        <v>38</v>
+      </c>
+      <c r="K83">
+        <v>22</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <v>0</v>
+      </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
+      <c r="P83">
+        <v>0</v>
+      </c>
+      <c r="Q83">
+        <v>1</v>
+      </c>
+      <c r="R83">
+        <v>1030</v>
+      </c>
+      <c r="S83">
+        <v>895</v>
+      </c>
+      <c r="T83">
+        <v>882</v>
+      </c>
+      <c r="U83">
+        <v>461</v>
+      </c>
+      <c r="V83">
+        <v>464</v>
+      </c>
+      <c r="W83">
+        <v>440</v>
+      </c>
+      <c r="X83">
+        <v>0</v>
+      </c>
+      <c r="Y83">
+        <v>0</v>
+      </c>
+      <c r="Z83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:26">
+      <c r="A84" t="s">
+        <v>268</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>3</v>
+      </c>
+      <c r="F84">
+        <v>446</v>
+      </c>
+      <c r="G84">
+        <v>467</v>
+      </c>
+      <c r="H84">
+        <v>304</v>
+      </c>
+      <c r="I84">
+        <v>258</v>
+      </c>
+      <c r="J84">
+        <v>265</v>
+      </c>
+      <c r="K84">
+        <v>216</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <v>2</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
+      <c r="P84">
+        <v>0</v>
+      </c>
+      <c r="Q84">
+        <v>1</v>
+      </c>
+      <c r="R84">
+        <v>2522</v>
+      </c>
+      <c r="S84">
+        <v>2619</v>
+      </c>
+      <c r="T84">
+        <v>2235</v>
+      </c>
+      <c r="U84">
+        <v>1491</v>
+      </c>
+      <c r="V84">
+        <v>1314</v>
+      </c>
+      <c r="W84">
+        <v>1150</v>
+      </c>
+      <c r="X84">
+        <v>0</v>
+      </c>
+      <c r="Y84">
+        <v>0</v>
+      </c>
+      <c r="Z84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:26">
+      <c r="A85" t="s">
+        <v>269</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>3</v>
+      </c>
+      <c r="F85">
+        <v>643</v>
+      </c>
+      <c r="G85">
+        <v>631</v>
+      </c>
+      <c r="H85">
+        <v>381</v>
+      </c>
+      <c r="I85">
+        <v>384</v>
+      </c>
+      <c r="J85">
+        <v>314</v>
+      </c>
+      <c r="K85">
+        <v>314</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <v>2</v>
+      </c>
+      <c r="O85">
+        <v>0</v>
+      </c>
+      <c r="P85">
+        <v>0</v>
+      </c>
+      <c r="Q85">
+        <v>0</v>
+      </c>
+      <c r="R85">
+        <v>3369</v>
+      </c>
+      <c r="S85">
+        <v>3299</v>
+      </c>
+      <c r="T85">
+        <v>2797</v>
+      </c>
+      <c r="U85">
+        <v>2215</v>
+      </c>
+      <c r="V85">
+        <v>1740</v>
+      </c>
+      <c r="W85">
+        <v>1401</v>
+      </c>
+      <c r="X85">
+        <v>0</v>
+      </c>
+      <c r="Y85">
+        <v>0</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:26">
+      <c r="A86" t="s">
+        <v>270</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>3</v>
+      </c>
+      <c r="F86">
+        <v>711</v>
+      </c>
+      <c r="G86">
+        <v>760</v>
+      </c>
+      <c r="H86">
+        <v>507</v>
+      </c>
+      <c r="I86">
+        <v>474</v>
+      </c>
+      <c r="J86">
+        <v>437</v>
+      </c>
+      <c r="K86">
+        <v>347</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="N86">
+        <v>2</v>
+      </c>
+      <c r="O86">
+        <v>0</v>
+      </c>
+      <c r="P86">
+        <v>0</v>
+      </c>
+      <c r="Q86">
+        <v>0</v>
+      </c>
+      <c r="R86">
+        <v>4343</v>
+      </c>
+      <c r="S86">
+        <v>4088</v>
+      </c>
+      <c r="T86">
+        <v>3452</v>
+      </c>
+      <c r="U86">
+        <v>2916</v>
+      </c>
+      <c r="V86">
+        <v>2437</v>
+      </c>
+      <c r="W86">
+        <v>2097</v>
+      </c>
+      <c r="X86">
+        <v>0</v>
+      </c>
+      <c r="Y86">
+        <v>0</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:26">
+      <c r="A87" t="s">
+        <v>271</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>924</v>
+      </c>
+      <c r="G87">
+        <v>692</v>
+      </c>
+      <c r="H87">
+        <v>685</v>
+      </c>
+      <c r="I87">
+        <v>810</v>
+      </c>
+      <c r="J87">
+        <v>694</v>
+      </c>
+      <c r="K87">
+        <v>589</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <v>0</v>
+      </c>
+      <c r="O87">
+        <v>8</v>
+      </c>
+      <c r="P87">
+        <v>2</v>
+      </c>
+      <c r="Q87">
+        <v>17</v>
+      </c>
+      <c r="R87">
+        <v>6340</v>
+      </c>
+      <c r="S87">
+        <v>5291</v>
+      </c>
+      <c r="T87">
+        <v>4641</v>
+      </c>
+      <c r="U87">
+        <v>5423</v>
+      </c>
+      <c r="V87">
+        <v>4877</v>
+      </c>
+      <c r="W87">
+        <v>4233</v>
+      </c>
+      <c r="X87">
+        <v>8</v>
+      </c>
+      <c r="Y87">
+        <v>1</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:26">
+      <c r="A88" s="72" t="s">
+        <v>272</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>900</v>
+      </c>
+      <c r="G88">
+        <v>644</v>
+      </c>
+      <c r="H88">
+        <v>734</v>
+      </c>
+      <c r="I88">
+        <v>1045</v>
+      </c>
+      <c r="J88">
+        <v>865</v>
+      </c>
+      <c r="K88">
+        <v>810</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88">
+        <v>0</v>
+      </c>
+      <c r="O88">
+        <v>2</v>
+      </c>
+      <c r="P88">
+        <v>7</v>
+      </c>
+      <c r="Q88">
+        <v>18</v>
+      </c>
+      <c r="R88">
+        <v>6824</v>
+      </c>
+      <c r="S88">
+        <v>5106</v>
+      </c>
+      <c r="T88">
+        <v>4833</v>
+      </c>
+      <c r="U88">
+        <v>7071</v>
+      </c>
+      <c r="V88">
+        <v>6138</v>
+      </c>
+      <c r="W88">
+        <v>5219</v>
+      </c>
+      <c r="X88">
+        <v>2</v>
+      </c>
+      <c r="Y88">
+        <v>7</v>
+      </c>
+      <c r="Z88">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="89" spans="1:26">
+      <c r="A89" t="s">
+        <v>273</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>872</v>
+      </c>
+      <c r="G89">
+        <v>628</v>
+      </c>
+      <c r="H89">
+        <v>680</v>
+      </c>
+      <c r="I89">
+        <v>979</v>
+      </c>
+      <c r="J89">
+        <v>805</v>
+      </c>
+      <c r="K89">
+        <v>727</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="N89">
+        <v>0</v>
+      </c>
+      <c r="O89">
+        <v>12</v>
+      </c>
+      <c r="P89">
+        <v>7</v>
+      </c>
+      <c r="Q89">
+        <v>18</v>
+      </c>
+      <c r="R89">
+        <v>6542</v>
+      </c>
+      <c r="S89">
+        <v>5074</v>
+      </c>
+      <c r="T89">
+        <v>4713</v>
+      </c>
+      <c r="U89">
+        <v>6803</v>
+      </c>
+      <c r="V89">
+        <v>5694</v>
+      </c>
+      <c r="W89">
+        <v>5204</v>
+      </c>
+      <c r="X89">
+        <v>5</v>
+      </c>
+      <c r="Y89">
+        <v>8</v>
+      </c>
+      <c r="Z89">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90" spans="1:26">
+      <c r="A90" t="s">
+        <v>274</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>791</v>
+      </c>
+      <c r="G90">
+        <v>469</v>
+      </c>
+      <c r="H90">
+        <v>247</v>
+      </c>
+      <c r="I90">
+        <v>791</v>
+      </c>
+      <c r="J90">
+        <v>531</v>
+      </c>
+      <c r="K90">
+        <v>418</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="N90">
+        <v>0</v>
+      </c>
+      <c r="O90">
+        <v>3</v>
+      </c>
+      <c r="P90">
+        <v>2</v>
+      </c>
+      <c r="Q90">
+        <v>12</v>
+      </c>
+      <c r="R90">
+        <v>6227</v>
+      </c>
+      <c r="S90">
+        <v>4555</v>
+      </c>
+      <c r="T90">
+        <v>4090</v>
+      </c>
+      <c r="U90">
+        <v>6794</v>
+      </c>
+      <c r="V90">
+        <v>5070</v>
+      </c>
+      <c r="W90">
+        <v>4366</v>
+      </c>
+      <c r="X90">
+        <v>3</v>
+      </c>
+      <c r="Y90">
+        <v>2</v>
+      </c>
+      <c r="Z90">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="91" spans="1:26">
+      <c r="A91" t="s">
+        <v>275</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>830</v>
+      </c>
+      <c r="G91">
+        <v>541</v>
+      </c>
+      <c r="H91">
+        <v>277</v>
+      </c>
+      <c r="I91">
+        <v>732</v>
+      </c>
+      <c r="J91">
+        <v>523</v>
+      </c>
+      <c r="K91">
+        <v>284</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="M91">
+        <v>1</v>
+      </c>
+      <c r="N91">
+        <v>0</v>
+      </c>
+      <c r="O91">
+        <v>5</v>
+      </c>
+      <c r="P91">
+        <v>0</v>
+      </c>
+      <c r="Q91">
+        <v>6</v>
+      </c>
+      <c r="R91">
+        <v>6269</v>
+      </c>
+      <c r="S91">
+        <v>4697</v>
+      </c>
+      <c r="T91">
+        <v>4339</v>
+      </c>
+      <c r="U91">
+        <v>6195</v>
+      </c>
+      <c r="V91">
+        <v>4418</v>
+      </c>
+      <c r="W91">
+        <v>3915</v>
+      </c>
+      <c r="X91">
+        <v>5</v>
+      </c>
+      <c r="Y91">
+        <v>0</v>
+      </c>
+      <c r="Z91">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="92" spans="1:26">
+      <c r="A92" t="s">
+        <v>276</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>842</v>
+      </c>
+      <c r="G92">
+        <v>613</v>
+      </c>
+      <c r="H92">
+        <v>637</v>
+      </c>
+      <c r="I92">
+        <v>707</v>
+      </c>
+      <c r="J92">
+        <v>678</v>
+      </c>
+      <c r="K92">
+        <v>677</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+      <c r="N92">
+        <v>0</v>
+      </c>
+      <c r="O92">
+        <v>0</v>
+      </c>
+      <c r="P92">
+        <v>4</v>
+      </c>
+      <c r="Q92">
+        <v>0</v>
+      </c>
+      <c r="R92">
+        <v>4269</v>
+      </c>
+      <c r="S92">
+        <v>3825</v>
+      </c>
+      <c r="T92">
+        <v>3701</v>
+      </c>
+      <c r="U92">
+        <v>4202</v>
+      </c>
+      <c r="V92">
+        <v>4004</v>
+      </c>
+      <c r="W92">
+        <v>3677</v>
+      </c>
+      <c r="X92">
+        <v>5</v>
+      </c>
+      <c r="Y92">
+        <v>4</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:26">
+      <c r="A93" t="s">
+        <v>277</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>805</v>
+      </c>
+      <c r="G93">
+        <v>568</v>
+      </c>
+      <c r="H93">
+        <v>535</v>
+      </c>
+      <c r="I93">
+        <v>720</v>
+      </c>
+      <c r="J93">
+        <v>679</v>
+      </c>
+      <c r="K93">
+        <v>662</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+      <c r="N93">
+        <v>0</v>
+      </c>
+      <c r="O93">
+        <v>0</v>
+      </c>
+      <c r="P93">
+        <v>0</v>
+      </c>
+      <c r="Q93">
+        <v>0</v>
+      </c>
+      <c r="R93">
+        <v>3942</v>
+      </c>
+      <c r="S93">
+        <v>3362</v>
+      </c>
+      <c r="T93">
+        <v>3269</v>
+      </c>
+      <c r="U93">
+        <v>4187</v>
+      </c>
+      <c r="V93">
+        <v>3892</v>
+      </c>
+      <c r="W93">
+        <v>3790</v>
+      </c>
+      <c r="X93">
+        <v>5</v>
+      </c>
+      <c r="Y93">
+        <v>0</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:26">
+      <c r="A94" t="s">
+        <v>278</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>825</v>
+      </c>
+      <c r="G94">
+        <v>469</v>
+      </c>
+      <c r="H94">
+        <v>427</v>
+      </c>
+      <c r="I94">
+        <v>685</v>
+      </c>
+      <c r="J94">
+        <v>644</v>
+      </c>
+      <c r="K94">
+        <v>611</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+      <c r="M94">
+        <v>0</v>
+      </c>
+      <c r="N94">
+        <v>0</v>
+      </c>
+      <c r="O94">
+        <v>0</v>
+      </c>
+      <c r="P94">
+        <v>0</v>
+      </c>
+      <c r="Q94">
+        <v>0</v>
+      </c>
+      <c r="R94">
+        <v>3892</v>
+      </c>
+      <c r="S94">
+        <v>3108</v>
+      </c>
+      <c r="T94">
+        <v>3112</v>
+      </c>
+      <c r="U94">
+        <v>4168</v>
+      </c>
+      <c r="V94">
+        <v>3786</v>
+      </c>
+      <c r="W94">
+        <v>3871</v>
+      </c>
+      <c r="X94">
+        <v>5</v>
+      </c>
+      <c r="Y94">
+        <v>0</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:26">
+      <c r="A95" t="s">
+        <v>279</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>896</v>
+      </c>
+      <c r="G95">
+        <v>464</v>
+      </c>
+      <c r="H95">
+        <v>463</v>
+      </c>
+      <c r="I95">
+        <v>874</v>
+      </c>
+      <c r="J95">
+        <v>736</v>
+      </c>
+      <c r="K95">
+        <v>694</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+      <c r="M95">
+        <v>0</v>
+      </c>
+      <c r="N95">
+        <v>0</v>
+      </c>
+      <c r="O95">
+        <v>0</v>
+      </c>
+      <c r="P95">
+        <v>0</v>
+      </c>
+      <c r="Q95">
+        <v>0</v>
+      </c>
+      <c r="R95">
+        <v>4045</v>
+      </c>
+      <c r="S95">
+        <v>3221</v>
+      </c>
+      <c r="T95">
+        <v>3333</v>
+      </c>
+      <c r="U95">
+        <v>4863</v>
+      </c>
+      <c r="V95">
+        <v>4398</v>
+      </c>
+      <c r="W95">
+        <v>4591</v>
+      </c>
+      <c r="X95">
+        <v>5</v>
+      </c>
+      <c r="Y95">
+        <v>0</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:26">
+      <c r="A96" t="s">
+        <v>280</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>912</v>
+      </c>
+      <c r="G96">
+        <v>485</v>
+      </c>
+      <c r="H96">
+        <v>469</v>
+      </c>
+      <c r="I96">
+        <v>849</v>
+      </c>
+      <c r="J96">
+        <v>706</v>
+      </c>
+      <c r="K96">
+        <v>635</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+      <c r="N96">
+        <v>0</v>
+      </c>
+      <c r="O96">
+        <v>0</v>
+      </c>
+      <c r="P96">
+        <v>0</v>
+      </c>
+      <c r="Q96">
+        <v>0</v>
+      </c>
+      <c r="R96">
+        <v>4299</v>
+      </c>
+      <c r="S96">
+        <v>3370</v>
+      </c>
+      <c r="T96">
+        <v>3367</v>
+      </c>
+      <c r="U96">
+        <v>4613</v>
+      </c>
+      <c r="V96">
+        <v>4168</v>
+      </c>
+      <c r="W96">
+        <v>4022</v>
+      </c>
+      <c r="X96">
+        <v>5</v>
+      </c>
+      <c r="Y96">
+        <v>0</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:26">
+      <c r="A97" t="s">
+        <v>281</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>969</v>
+      </c>
+      <c r="G97">
+        <v>512</v>
+      </c>
+      <c r="H97">
+        <v>491</v>
+      </c>
+      <c r="I97">
+        <v>882</v>
+      </c>
+      <c r="J97">
+        <v>663</v>
+      </c>
+      <c r="K97">
+        <v>617</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="N97">
+        <v>0</v>
+      </c>
+      <c r="O97">
+        <v>0</v>
+      </c>
+      <c r="P97">
+        <v>0</v>
+      </c>
+      <c r="Q97">
+        <v>0</v>
+      </c>
+      <c r="R97">
+        <v>4780</v>
+      </c>
+      <c r="S97">
+        <v>3628</v>
+      </c>
+      <c r="T97">
+        <v>3515</v>
+      </c>
+      <c r="U97">
+        <v>4797</v>
+      </c>
+      <c r="V97">
+        <v>4191</v>
+      </c>
+      <c r="W97">
+        <v>4100</v>
+      </c>
+      <c r="X97">
+        <v>5</v>
+      </c>
+      <c r="Y97">
+        <v>0</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:26">
+      <c r="A98" t="s">
+        <v>282</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>260</v>
+      </c>
+      <c r="G98">
+        <v>182</v>
+      </c>
+      <c r="H98">
+        <v>283</v>
+      </c>
+      <c r="I98">
+        <v>391</v>
+      </c>
+      <c r="J98">
+        <v>263</v>
+      </c>
+      <c r="K98">
+        <v>334</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+      <c r="M98">
+        <v>0</v>
+      </c>
+      <c r="N98">
+        <v>0</v>
+      </c>
+      <c r="O98">
+        <v>4</v>
+      </c>
+      <c r="P98">
+        <v>0</v>
+      </c>
+      <c r="Q98">
+        <v>0</v>
+      </c>
+      <c r="R98">
+        <v>2739</v>
+      </c>
+      <c r="S98">
+        <v>2049</v>
+      </c>
+      <c r="T98">
+        <v>1865</v>
+      </c>
+      <c r="U98">
+        <v>3518</v>
+      </c>
+      <c r="V98">
+        <v>3087</v>
+      </c>
+      <c r="W98">
+        <v>2595</v>
+      </c>
+      <c r="X98">
+        <v>4</v>
+      </c>
+      <c r="Y98">
+        <v>0</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:26">
+      <c r="A99" t="s">
+        <v>283</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>795</v>
+      </c>
+      <c r="G99">
+        <v>643</v>
+      </c>
+      <c r="H99">
+        <v>545</v>
+      </c>
+      <c r="I99">
+        <v>845</v>
+      </c>
+      <c r="J99">
+        <v>650</v>
+      </c>
+      <c r="K99">
+        <v>569</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+      <c r="M99">
+        <v>0</v>
+      </c>
+      <c r="N99">
+        <v>0</v>
+      </c>
+      <c r="O99">
+        <v>5</v>
+      </c>
+      <c r="P99">
+        <v>1</v>
+      </c>
+      <c r="Q99">
+        <v>0</v>
+      </c>
+      <c r="R99">
+        <v>6917</v>
+      </c>
+      <c r="S99">
+        <v>4576</v>
+      </c>
+      <c r="T99">
+        <v>4639</v>
+      </c>
+      <c r="U99">
+        <v>6792</v>
+      </c>
+      <c r="V99">
+        <v>4580</v>
+      </c>
+      <c r="W99">
+        <v>4384</v>
+      </c>
+      <c r="X99">
+        <v>3</v>
+      </c>
+      <c r="Y99">
+        <v>1</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:26">
+      <c r="A100" t="s">
+        <v>284</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>514</v>
+      </c>
+      <c r="G100">
+        <v>293</v>
+      </c>
+      <c r="H100">
+        <v>372</v>
+      </c>
+      <c r="I100">
+        <v>482</v>
+      </c>
+      <c r="J100">
+        <v>292</v>
+      </c>
+      <c r="K100">
+        <v>247</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+      <c r="N100">
+        <v>0</v>
+      </c>
+      <c r="O100">
+        <v>3</v>
+      </c>
+      <c r="P100">
+        <v>0</v>
+      </c>
+      <c r="Q100">
+        <v>0</v>
+      </c>
+      <c r="R100">
+        <v>3293</v>
+      </c>
+      <c r="S100">
+        <v>2070</v>
+      </c>
+      <c r="T100">
+        <v>1901</v>
+      </c>
+      <c r="U100">
+        <v>3387</v>
+      </c>
+      <c r="V100">
+        <v>2385</v>
+      </c>
+      <c r="W100">
+        <v>2050</v>
+      </c>
+      <c r="X100">
+        <v>3</v>
+      </c>
+      <c r="Y100">
+        <v>0</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:26">
+      <c r="A101" t="s">
+        <v>285</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>27</v>
+      </c>
+      <c r="G101">
+        <v>6</v>
+      </c>
+      <c r="H101">
+        <v>10</v>
+      </c>
+      <c r="I101">
+        <v>16</v>
+      </c>
+      <c r="J101">
+        <v>3</v>
+      </c>
+      <c r="K101">
+        <v>7</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+      <c r="M101">
+        <v>0</v>
+      </c>
+      <c r="N101">
+        <v>0</v>
+      </c>
+      <c r="O101">
+        <v>0</v>
+      </c>
+      <c r="P101">
+        <v>0</v>
+      </c>
+      <c r="Q101">
+        <v>4</v>
+      </c>
+      <c r="R101">
+        <v>2316</v>
+      </c>
+      <c r="S101">
+        <v>1760</v>
+      </c>
+      <c r="T101">
+        <v>1533</v>
+      </c>
+      <c r="U101">
+        <v>2081</v>
+      </c>
+      <c r="V101">
+        <v>1537</v>
+      </c>
+      <c r="W101">
+        <v>1341</v>
+      </c>
+      <c r="X101">
+        <v>0</v>
+      </c>
+      <c r="Y101">
+        <v>0</v>
+      </c>
+      <c r="Z101">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:26">
+      <c r="A102" t="s">
+        <v>286</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>33</v>
+      </c>
+      <c r="G102">
+        <v>4</v>
+      </c>
+      <c r="H102">
+        <v>5</v>
+      </c>
+      <c r="I102">
+        <v>15</v>
+      </c>
+      <c r="J102">
+        <v>1</v>
+      </c>
+      <c r="K102">
+        <v>5</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+      <c r="N102">
+        <v>0</v>
+      </c>
+      <c r="O102">
+        <v>0</v>
+      </c>
+      <c r="P102">
+        <v>0</v>
+      </c>
+      <c r="Q102">
+        <v>4</v>
+      </c>
+      <c r="R102">
+        <v>2463</v>
+      </c>
+      <c r="S102">
+        <v>1906</v>
+      </c>
+      <c r="T102">
+        <v>1580</v>
+      </c>
+      <c r="U102">
+        <v>2173</v>
+      </c>
+      <c r="V102">
+        <v>1642</v>
+      </c>
+      <c r="W102">
+        <v>1384</v>
+      </c>
+      <c r="X102">
+        <v>0</v>
+      </c>
+      <c r="Y102">
+        <v>0</v>
+      </c>
+      <c r="Z102">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:26">
+      <c r="A103" s="72" t="s">
+        <v>287</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>23</v>
+      </c>
+      <c r="G103">
+        <v>22</v>
+      </c>
+      <c r="H103">
+        <v>5</v>
+      </c>
+      <c r="I103">
+        <v>27</v>
+      </c>
+      <c r="J103">
+        <v>32</v>
+      </c>
+      <c r="K103">
+        <v>6</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+      <c r="N103">
+        <v>0</v>
+      </c>
+      <c r="O103">
+        <v>1</v>
+      </c>
+      <c r="P103">
+        <v>6</v>
+      </c>
+      <c r="Q103">
+        <v>16</v>
+      </c>
+      <c r="R103">
+        <v>5111</v>
+      </c>
+      <c r="S103">
+        <v>3961</v>
+      </c>
+      <c r="T103">
+        <v>4150</v>
+      </c>
+      <c r="U103">
+        <v>5160</v>
+      </c>
+      <c r="V103">
+        <v>4136</v>
+      </c>
+      <c r="W103">
+        <v>4240</v>
+      </c>
+      <c r="X103">
+        <v>1</v>
+      </c>
+      <c r="Y103">
+        <v>6</v>
+      </c>
+      <c r="Z103">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="104" spans="1:26">
+      <c r="A104" t="s">
+        <v>288</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>11</v>
+      </c>
+      <c r="G104">
+        <v>11</v>
+      </c>
+      <c r="H104">
+        <v>2</v>
+      </c>
+      <c r="I104">
+        <v>15</v>
+      </c>
+      <c r="J104">
+        <v>8</v>
+      </c>
+      <c r="K104">
+        <v>4</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
+        <v>0</v>
+      </c>
+      <c r="N104">
+        <v>0</v>
+      </c>
+      <c r="O104">
+        <v>3</v>
+      </c>
+      <c r="P104">
+        <v>2</v>
+      </c>
+      <c r="Q104">
+        <v>2</v>
+      </c>
+      <c r="R104">
+        <v>3173</v>
+      </c>
+      <c r="S104">
+        <v>2594</v>
+      </c>
+      <c r="T104">
+        <v>2812</v>
+      </c>
+      <c r="U104">
+        <v>3497</v>
+      </c>
+      <c r="V104">
+        <v>2900</v>
+      </c>
+      <c r="W104">
+        <v>3078</v>
+      </c>
+      <c r="X104">
+        <v>3</v>
+      </c>
+      <c r="Y104">
+        <v>2</v>
+      </c>
+      <c r="Z104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:26">
+      <c r="A105" s="72" t="s">
+        <v>289</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>781</v>
+      </c>
+      <c r="G105">
+        <v>654</v>
+      </c>
+      <c r="H105">
+        <v>802</v>
+      </c>
+      <c r="I105">
+        <v>836</v>
+      </c>
+      <c r="J105">
+        <v>713</v>
+      </c>
+      <c r="K105">
+        <v>875</v>
+      </c>
+      <c r="L105">
+        <v>2</v>
+      </c>
+      <c r="M105">
+        <v>0</v>
+      </c>
+      <c r="N105">
+        <v>0</v>
+      </c>
+      <c r="O105">
+        <v>3</v>
+      </c>
+      <c r="P105">
+        <v>0</v>
+      </c>
+      <c r="Q105">
+        <v>0</v>
+      </c>
+      <c r="R105">
+        <v>1383</v>
+      </c>
+      <c r="S105">
+        <v>1238</v>
+      </c>
+      <c r="T105">
+        <v>1339</v>
+      </c>
+      <c r="U105">
+        <v>1521</v>
+      </c>
+      <c r="V105">
+        <v>1371</v>
+      </c>
+      <c r="W105">
+        <v>1410</v>
+      </c>
+      <c r="X105">
+        <v>3</v>
+      </c>
+      <c r="Y105">
+        <v>0</v>
+      </c>
+      <c r="Z105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:26">
+      <c r="A106" t="s">
+        <v>290</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>1</v>
+      </c>
+      <c r="G106">
+        <v>3</v>
+      </c>
+      <c r="H106">
+        <v>16</v>
+      </c>
+      <c r="I106">
+        <v>19</v>
+      </c>
+      <c r="J106">
+        <v>3</v>
+      </c>
+      <c r="K106">
+        <v>15</v>
+      </c>
+      <c r="L106">
+        <v>0</v>
+      </c>
+      <c r="M106">
+        <v>0</v>
+      </c>
+      <c r="N106">
+        <v>0</v>
+      </c>
+      <c r="O106">
+        <v>0</v>
+      </c>
+      <c r="P106">
+        <v>0</v>
+      </c>
+      <c r="Q106">
+        <v>3</v>
+      </c>
+      <c r="R106">
+        <v>1169</v>
+      </c>
+      <c r="S106">
+        <v>1026</v>
+      </c>
+      <c r="T106">
+        <v>892</v>
+      </c>
+      <c r="U106">
+        <v>1323</v>
+      </c>
+      <c r="V106">
+        <v>1198</v>
+      </c>
+      <c r="W106">
+        <v>1069</v>
+      </c>
+      <c r="X106">
+        <v>0</v>
+      </c>
+      <c r="Y106">
+        <v>0</v>
+      </c>
+      <c r="Z106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:26">
+      <c r="A107" t="s">
+        <v>291</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>3</v>
+      </c>
+      <c r="G107">
+        <v>3</v>
+      </c>
+      <c r="H107">
+        <v>16</v>
+      </c>
+      <c r="I107">
+        <v>20</v>
+      </c>
+      <c r="J107">
+        <v>3</v>
+      </c>
+      <c r="K107">
+        <v>15</v>
+      </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
+      <c r="M107">
+        <v>0</v>
+      </c>
+      <c r="N107">
+        <v>0</v>
+      </c>
+      <c r="O107">
+        <v>0</v>
+      </c>
+      <c r="P107">
+        <v>0</v>
+      </c>
+      <c r="Q107">
+        <v>3</v>
+      </c>
+      <c r="R107">
+        <v>1216</v>
+      </c>
+      <c r="S107">
+        <v>1039</v>
+      </c>
+      <c r="T107">
+        <v>932</v>
+      </c>
+      <c r="U107">
+        <v>1310</v>
+      </c>
+      <c r="V107">
+        <v>1208</v>
+      </c>
+      <c r="W107">
+        <v>1080</v>
+      </c>
+      <c r="X107">
+        <v>0</v>
+      </c>
+      <c r="Y107">
+        <v>0</v>
+      </c>
+      <c r="Z107">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:26">
+      <c r="A108" s="72" t="s">
+        <v>292</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>22</v>
+      </c>
+      <c r="G108">
+        <v>65</v>
+      </c>
+      <c r="H108">
+        <v>43</v>
+      </c>
+      <c r="I108">
+        <v>13</v>
+      </c>
+      <c r="J108">
+        <v>73</v>
+      </c>
+      <c r="K108">
+        <v>7</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+      <c r="M108">
+        <v>0</v>
+      </c>
+      <c r="N108">
+        <v>0</v>
+      </c>
+      <c r="O108">
+        <v>0</v>
+      </c>
+      <c r="P108">
+        <v>0</v>
+      </c>
+      <c r="Q108">
+        <v>0</v>
+      </c>
+      <c r="R108">
+        <v>3085</v>
+      </c>
+      <c r="S108">
+        <v>3979</v>
+      </c>
+      <c r="T108">
+        <v>3540</v>
+      </c>
+      <c r="U108">
+        <v>1984</v>
+      </c>
+      <c r="V108">
+        <v>2378</v>
+      </c>
+      <c r="W108">
+        <v>2093</v>
+      </c>
+      <c r="X108">
+        <v>0</v>
+      </c>
+      <c r="Y108">
+        <v>0</v>
+      </c>
+      <c r="Z108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:26">
+      <c r="A109" t="s">
+        <v>293</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <v>3</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <v>3</v>
+      </c>
+      <c r="J109">
+        <v>4</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
+      </c>
+      <c r="L109">
+        <v>0</v>
+      </c>
+      <c r="M109">
+        <v>0</v>
+      </c>
+      <c r="N109">
+        <v>0</v>
+      </c>
+      <c r="O109">
+        <v>0</v>
+      </c>
+      <c r="P109">
+        <v>0</v>
+      </c>
+      <c r="Q109">
+        <v>0</v>
+      </c>
+      <c r="R109">
+        <v>499</v>
+      </c>
+      <c r="S109">
+        <v>355</v>
+      </c>
+      <c r="T109">
+        <v>413</v>
+      </c>
+      <c r="U109">
+        <v>1142</v>
+      </c>
+      <c r="V109">
+        <v>1027</v>
+      </c>
+      <c r="W109">
+        <v>811</v>
+      </c>
+      <c r="X109">
+        <v>0</v>
+      </c>
+      <c r="Y109">
+        <v>0</v>
+      </c>
+      <c r="Z109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:26">
+      <c r="A110" t="s">
+        <v>294</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="D110">
+        <v>8</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>433</v>
+      </c>
+      <c r="G110">
+        <v>606</v>
+      </c>
+      <c r="H110">
+        <v>450</v>
+      </c>
+      <c r="I110">
+        <v>428</v>
+      </c>
+      <c r="J110">
+        <v>489</v>
+      </c>
+      <c r="K110">
+        <v>314</v>
+      </c>
+      <c r="L110">
+        <v>0</v>
+      </c>
+      <c r="M110">
+        <v>8</v>
+      </c>
+      <c r="N110">
+        <v>0</v>
+      </c>
+      <c r="O110">
+        <v>0</v>
+      </c>
+      <c r="P110">
+        <v>0</v>
+      </c>
+      <c r="Q110">
+        <v>0</v>
+      </c>
+      <c r="R110">
+        <v>681</v>
+      </c>
+      <c r="S110">
+        <v>953</v>
+      </c>
+      <c r="T110">
+        <v>707</v>
+      </c>
+      <c r="U110">
+        <v>791</v>
+      </c>
+      <c r="V110">
+        <v>797</v>
+      </c>
+      <c r="W110">
+        <v>699</v>
+      </c>
+      <c r="X110">
+        <v>0</v>
+      </c>
+      <c r="Y110">
+        <v>0</v>
+      </c>
+      <c r="Z110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:26">
+      <c r="A111" t="s">
+        <v>295</v>
+      </c>
+      <c r="C111">
+        <v>0</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>8</v>
+      </c>
+      <c r="F111">
+        <v>1122</v>
+      </c>
+      <c r="G111">
+        <v>917</v>
+      </c>
+      <c r="H111">
+        <v>855</v>
+      </c>
+      <c r="I111">
+        <v>826</v>
+      </c>
+      <c r="J111">
+        <v>731</v>
+      </c>
+      <c r="K111">
+        <v>691</v>
+      </c>
+      <c r="L111">
+        <v>0</v>
+      </c>
+      <c r="M111">
+        <v>0</v>
+      </c>
+      <c r="N111">
+        <v>8</v>
+      </c>
+      <c r="O111">
+        <v>1</v>
+      </c>
+      <c r="P111">
+        <v>0</v>
+      </c>
+      <c r="Q111">
+        <v>0</v>
+      </c>
+      <c r="R111">
+        <v>1283</v>
+      </c>
+      <c r="S111">
+        <v>1395</v>
+      </c>
+      <c r="T111">
+        <v>1291</v>
+      </c>
+      <c r="U111">
+        <v>820</v>
+      </c>
+      <c r="V111">
+        <v>883</v>
+      </c>
+      <c r="W111">
+        <v>904</v>
+      </c>
+      <c r="X111">
+        <v>1</v>
+      </c>
+      <c r="Y111">
+        <v>0</v>
+      </c>
+      <c r="Z111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:26">
+      <c r="A112" t="s">
+        <v>296</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>8</v>
+      </c>
+      <c r="F112">
+        <v>1187</v>
+      </c>
+      <c r="G112">
+        <v>930</v>
+      </c>
+      <c r="H112">
+        <v>935</v>
+      </c>
+      <c r="I112">
+        <v>893</v>
+      </c>
+      <c r="J112">
+        <v>734</v>
+      </c>
+      <c r="K112">
+        <v>713</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+      <c r="M112">
+        <v>0</v>
+      </c>
+      <c r="N112">
+        <v>8</v>
+      </c>
+      <c r="O112">
+        <v>1</v>
+      </c>
+      <c r="P112">
+        <v>0</v>
+      </c>
+      <c r="Q112">
+        <v>0</v>
+      </c>
+      <c r="R112">
+        <v>1305</v>
+      </c>
+      <c r="S112">
+        <v>1453</v>
+      </c>
+      <c r="T112">
+        <v>1370</v>
+      </c>
+      <c r="U112">
+        <v>823</v>
+      </c>
+      <c r="V112">
+        <v>899</v>
+      </c>
+      <c r="W112">
+        <v>907</v>
+      </c>
+      <c r="X112">
+        <v>1</v>
+      </c>
+      <c r="Y112">
+        <v>0</v>
+      </c>
+      <c r="Z112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:26">
+      <c r="A113" s="72" t="s">
+        <v>297</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>8</v>
+      </c>
+      <c r="F113">
+        <v>1188</v>
+      </c>
+      <c r="G113">
+        <v>1019</v>
+      </c>
+      <c r="H113">
+        <v>992</v>
+      </c>
+      <c r="I113">
+        <v>1048</v>
+      </c>
+      <c r="J113">
+        <v>802</v>
+      </c>
+      <c r="K113">
+        <v>773</v>
+      </c>
+      <c r="L113">
+        <v>0</v>
+      </c>
+      <c r="M113">
+        <v>0</v>
+      </c>
+      <c r="N113">
+        <v>8</v>
+      </c>
+      <c r="O113">
+        <v>1</v>
+      </c>
+      <c r="P113">
+        <v>0</v>
+      </c>
+      <c r="Q113">
+        <v>0</v>
+      </c>
+      <c r="R113">
+        <v>1573</v>
+      </c>
+      <c r="S113">
+        <v>1681</v>
+      </c>
+      <c r="T113">
+        <v>1471</v>
+      </c>
+      <c r="U113">
+        <v>1238</v>
+      </c>
+      <c r="V113">
+        <v>1290</v>
+      </c>
+      <c r="W113">
+        <v>1240</v>
+      </c>
+      <c r="X113">
+        <v>1</v>
+      </c>
+      <c r="Y113">
+        <v>0</v>
+      </c>
+      <c r="Z113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:26">
+      <c r="A114" t="s">
+        <v>298</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <v>8</v>
+      </c>
+      <c r="F114">
+        <v>1188</v>
+      </c>
+      <c r="G114">
+        <v>1017</v>
+      </c>
+      <c r="H114">
+        <v>989</v>
+      </c>
+      <c r="I114">
+        <v>1049</v>
+      </c>
+      <c r="J114">
+        <v>803</v>
+      </c>
+      <c r="K114">
+        <v>773</v>
+      </c>
+      <c r="L114">
+        <v>0</v>
+      </c>
+      <c r="M114">
+        <v>0</v>
+      </c>
+      <c r="N114">
+        <v>8</v>
+      </c>
+      <c r="O114">
+        <v>1</v>
+      </c>
+      <c r="P114">
+        <v>0</v>
+      </c>
+      <c r="Q114">
+        <v>0</v>
+      </c>
+      <c r="R114">
+        <v>1573</v>
+      </c>
+      <c r="S114">
+        <v>1681</v>
+      </c>
+      <c r="T114">
+        <v>1471</v>
+      </c>
+      <c r="U114">
+        <v>1238</v>
+      </c>
+      <c r="V114">
+        <v>1290</v>
+      </c>
+      <c r="W114">
+        <v>1240</v>
+      </c>
+      <c r="X114">
+        <v>1</v>
+      </c>
+      <c r="Y114">
+        <v>0</v>
+      </c>
+      <c r="Z114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:26">
+      <c r="A115" t="s">
+        <v>299</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>8</v>
+      </c>
+      <c r="F115">
+        <v>1196</v>
+      </c>
+      <c r="G115">
+        <v>1045</v>
+      </c>
+      <c r="H115">
+        <v>1034</v>
+      </c>
+      <c r="I115">
+        <v>1069</v>
+      </c>
+      <c r="J115">
+        <v>812</v>
+      </c>
+      <c r="K115">
+        <v>773</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+      <c r="M115">
+        <v>0</v>
+      </c>
+      <c r="N115">
+        <v>8</v>
+      </c>
+      <c r="O115">
+        <v>1</v>
+      </c>
+      <c r="P115">
+        <v>0</v>
+      </c>
+      <c r="Q115">
+        <v>0</v>
+      </c>
+      <c r="R115">
+        <v>1573</v>
+      </c>
+      <c r="S115">
+        <v>1681</v>
+      </c>
+      <c r="T115">
+        <v>1471</v>
+      </c>
+      <c r="U115">
+        <v>1238</v>
+      </c>
+      <c r="V115">
+        <v>1290</v>
+      </c>
+      <c r="W115">
+        <v>1240</v>
+      </c>
+      <c r="X115">
+        <v>1</v>
+      </c>
+      <c r="Y115">
+        <v>0</v>
+      </c>
+      <c r="Z115">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
